--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807288716469884</v>
+        <v>1.807288716469969</v>
       </c>
       <c r="C2">
         <v>0.2454219179730472</v>
       </c>
       <c r="D2">
-        <v>0.03699730552946789</v>
+        <v>0.03699730552947145</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.103350971923305</v>
+        <v>2.103350971923291</v>
       </c>
       <c r="G2">
-        <v>1.692172119357053</v>
+        <v>1.692172119357068</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4272128388672769</v>
+        <v>0.4272128388672911</v>
       </c>
       <c r="K2">
-        <v>0.3200300844644204</v>
+        <v>0.3200300844644062</v>
       </c>
       <c r="L2">
         <v>0.7689994789489916</v>
@@ -453,19 +453,19 @@
         <v>1.558001509803773</v>
       </c>
       <c r="C3">
-        <v>0.2184010075417717</v>
+        <v>0.2184010075415728</v>
       </c>
       <c r="D3">
-        <v>0.0371316377723474</v>
+        <v>0.03713163777214845</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.881638558364429</v>
+        <v>1.881638558364415</v>
       </c>
       <c r="G3">
-        <v>1.521030641469835</v>
+        <v>1.521030641469821</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0.3687984337891308</v>
       </c>
       <c r="K3">
-        <v>0.2774111291922523</v>
+        <v>0.2774111291922665</v>
       </c>
       <c r="L3">
-        <v>0.6631960868137341</v>
+        <v>0.663196086813727</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.407000122446135</v>
+        <v>1.407000122446306</v>
       </c>
       <c r="C4">
-        <v>0.2018912755047779</v>
+        <v>0.2018912755050906</v>
       </c>
       <c r="D4">
-        <v>0.03724756448350419</v>
+        <v>0.0372475644837067</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>1.749267366093719</v>
       </c>
       <c r="G4">
-        <v>1.419009082708598</v>
+        <v>1.419009082708584</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0.251869010869548</v>
       </c>
       <c r="L4">
-        <v>0.5994512296184951</v>
+        <v>0.599451229618488</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.345905084961032</v>
+        <v>1.345905084960947</v>
       </c>
       <c r="C5">
-        <v>0.1951763382783298</v>
+        <v>0.1951763382784435</v>
       </c>
       <c r="D5">
-        <v>0.0373023350742443</v>
+        <v>0.03730233507415903</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>1.696167734096406</v>
       </c>
       <c r="G5">
-        <v>1.378120870560707</v>
+        <v>1.378120870560693</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3189960008801833</v>
+        <v>0.3189960008801762</v>
       </c>
       <c r="K5">
-        <v>0.2415973115141483</v>
+        <v>0.2415973115141341</v>
       </c>
       <c r="L5">
-        <v>0.5737389753537698</v>
+        <v>0.5737389753537769</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.335784640195158</v>
+        <v>1.335784640195129</v>
       </c>
       <c r="C6">
-        <v>0.1940619011000564</v>
+        <v>0.1940619011000706</v>
       </c>
       <c r="D6">
-        <v>0.03731186032572964</v>
+        <v>0.03731186032582912</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.68739862105177</v>
+        <v>1.687398621051784</v>
       </c>
       <c r="G6">
         <v>1.371370569104116</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3166168948851578</v>
+        <v>0.3166168948851791</v>
       </c>
       <c r="K6">
-        <v>0.2398994074204168</v>
+        <v>0.2398994074204452</v>
       </c>
       <c r="L6">
-        <v>0.5694842724820361</v>
+        <v>0.5694842724820504</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.4061744947644</v>
+        <v>1.406174494764286</v>
       </c>
       <c r="C7">
-        <v>0.2018006726702595</v>
+        <v>0.2018006726700747</v>
       </c>
       <c r="D7">
-        <v>0.03724827375381068</v>
+        <v>0.03724827375376449</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.748547964017405</v>
+        <v>1.748547964017419</v>
       </c>
       <c r="G7">
-        <v>1.418454975684583</v>
+        <v>1.418454975684597</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3331586971421672</v>
+        <v>0.3331586971421814</v>
       </c>
       <c r="K7">
-        <v>0.2517299545649365</v>
+        <v>0.2517299545649152</v>
       </c>
       <c r="L7">
-        <v>0.5991034481991022</v>
+        <v>0.5991034481991093</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.72085660649725</v>
+        <v>1.720856606497364</v>
       </c>
       <c r="C8">
         <v>0.2360835080379218</v>
       </c>
       <c r="D8">
-        <v>0.03703612338142293</v>
+        <v>0.03703612338123108</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.026059148894305</v>
+        <v>2.026059148894333</v>
       </c>
       <c r="G8">
         <v>1.63247523499588</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4069728252397979</v>
+        <v>0.406972825239805</v>
       </c>
       <c r="K8">
-        <v>0.3051921845477565</v>
+        <v>0.305192184547785</v>
       </c>
       <c r="L8">
-        <v>0.732238899479519</v>
+        <v>0.7322388994795119</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>2.358292799038963</v>
       </c>
       <c r="C9">
-        <v>0.3043366155468732</v>
+        <v>0.3043366155468306</v>
       </c>
       <c r="D9">
-        <v>0.03693029822556326</v>
+        <v>0.03693029822531102</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.605247708906376</v>
+        <v>2.605247708906404</v>
       </c>
       <c r="G9">
-        <v>2.080597312321103</v>
+        <v>2.080597312321146</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5559699348766358</v>
+        <v>0.5559699348766429</v>
       </c>
       <c r="K9">
-        <v>0.4160331002692317</v>
+        <v>0.416033100269253</v>
       </c>
       <c r="L9">
-        <v>1.005111985413386</v>
+        <v>1.005111985413393</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,10 +719,10 @@
         <v>2.845281016563888</v>
       </c>
       <c r="C10">
-        <v>0.3557082539452239</v>
+        <v>0.355708253945437</v>
       </c>
       <c r="D10">
-        <v>0.03711339049184303</v>
+        <v>0.0371133904917258</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>3.060146488584991</v>
       </c>
       <c r="G10">
-        <v>2.433646379691766</v>
+        <v>2.433646379691751</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0.6694563690098505</v>
       </c>
       <c r="K10">
-        <v>0.5027587004142049</v>
+        <v>0.5027587004141978</v>
       </c>
       <c r="L10">
-        <v>1.216126868860925</v>
+        <v>1.216126868860911</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.072497190105366</v>
+        <v>3.07249719010531</v>
       </c>
       <c r="C11">
-        <v>0.3795016953744295</v>
+        <v>0.3795016953743726</v>
       </c>
       <c r="D11">
-        <v>0.03727254499282751</v>
+        <v>0.03727254499279908</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.275539284135306</v>
+        <v>3.275539284135334</v>
       </c>
       <c r="G11">
-        <v>2.601099770304714</v>
+        <v>2.601099770304728</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0.7223269944182036</v>
       </c>
       <c r="K11">
-        <v>0.5437879445503384</v>
+        <v>0.5437879445503526</v>
       </c>
       <c r="L11">
         <v>1.315280812933267</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.159511263044976</v>
+        <v>3.159511263045147</v>
       </c>
       <c r="C12">
-        <v>0.3885878636658333</v>
+        <v>0.3885878636663023</v>
       </c>
       <c r="D12">
-        <v>0.03734564585440836</v>
+        <v>0.03734564585444033</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.35851831450384</v>
+        <v>3.358518314503812</v>
       </c>
       <c r="G12">
         <v>2.665656008370306</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7425624580952075</v>
+        <v>0.7425624580952288</v>
       </c>
       <c r="K12">
-        <v>0.5595930852766102</v>
+        <v>0.5595930852766031</v>
       </c>
       <c r="L12">
-        <v>1.353366963183163</v>
+        <v>1.353366963183191</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.140725288306328</v>
+        <v>3.140725288306498</v>
       </c>
       <c r="C13">
-        <v>0.3866273462539453</v>
+        <v>0.3866273462539596</v>
       </c>
       <c r="D13">
-        <v>0.03732929756893455</v>
+        <v>0.03732929756903758</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.340580942647563</v>
+        <v>3.340580942647591</v>
       </c>
       <c r="G13">
-        <v>2.651698945549199</v>
+        <v>2.651698945549214</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7381942316532033</v>
+        <v>0.7381942316531962</v>
       </c>
       <c r="K13">
-        <v>0.5561765101461447</v>
+        <v>0.5561765101461162</v>
       </c>
       <c r="L13">
-        <v>1.345139005468198</v>
+        <v>1.345139005468241</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,10 +871,10 @@
         <v>3.079635441584855</v>
       </c>
       <c r="C14">
-        <v>0.3802476004338189</v>
+        <v>0.3802476004340747</v>
       </c>
       <c r="D14">
-        <v>0.03727828973614677</v>
+        <v>0.03727828973637415</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3.28233644016845</v>
       </c>
       <c r="G14">
-        <v>2.606386902506614</v>
+        <v>2.606386902506628</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.723987258699438</v>
+        <v>0.7239872586994736</v>
       </c>
       <c r="K14">
-        <v>0.5450826079660089</v>
+        <v>0.545082607966016</v>
       </c>
       <c r="L14">
-        <v>1.318402863737447</v>
+        <v>1.318402863737461</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,16 +912,16 @@
         <v>0.3763502180646157</v>
       </c>
       <c r="D15">
-        <v>0.03724877949198557</v>
+        <v>0.03724877949199623</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.246850542302155</v>
+        <v>3.246850542302099</v>
       </c>
       <c r="G15">
-        <v>2.57878624098619</v>
+        <v>2.578786240986162</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0.7153141475772955</v>
       </c>
       <c r="K15">
-        <v>0.5383235391325201</v>
+        <v>0.5383235391325272</v>
       </c>
       <c r="L15">
-        <v>1.302099053453034</v>
+        <v>1.302099053453006</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.830559045444261</v>
+        <v>2.830559045444431</v>
       </c>
       <c r="C16">
-        <v>0.3541630770867243</v>
+        <v>0.3541630770869801</v>
       </c>
       <c r="D16">
-        <v>0.0371046735193481</v>
+        <v>0.03710467351919888</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.046256606927983</v>
+        <v>3.04625660692804</v>
       </c>
       <c r="G16">
-        <v>2.422853964071166</v>
+        <v>2.42285396407118</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0.5001124925475295</v>
       </c>
       <c r="L16">
-        <v>1.209717474678854</v>
+        <v>1.209717474678868</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.702193030688989</v>
+        <v>2.702193030689216</v>
       </c>
       <c r="C17">
-        <v>0.3406707446960411</v>
+        <v>0.3406707446960553</v>
       </c>
       <c r="D17">
-        <v>0.03703697553588725</v>
+        <v>0.03703697553602225</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>2.925497909860439</v>
       </c>
       <c r="G17">
-        <v>2.329056478947493</v>
+        <v>2.329056478947464</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6361370305375544</v>
+        <v>0.6361370305375686</v>
       </c>
       <c r="K17">
-        <v>0.4771029312673392</v>
+        <v>0.4771029312672965</v>
       </c>
       <c r="L17">
-        <v>1.153910489058447</v>
+        <v>1.153910489058426</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.628884768098885</v>
+        <v>2.628884768098828</v>
       </c>
       <c r="C18">
-        <v>0.3329492231622737</v>
+        <v>0.3329492231627285</v>
       </c>
       <c r="D18">
-        <v>0.03700504666238658</v>
+        <v>0.03700504666250737</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.856823419816635</v>
+        <v>2.856823419816607</v>
       </c>
       <c r="G18">
-        <v>2.275740607686927</v>
+        <v>2.275740607686956</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6190586953369177</v>
+        <v>0.6190586953369248</v>
       </c>
       <c r="K18">
-        <v>0.4640141058574727</v>
+        <v>0.4640141058574869</v>
       </c>
       <c r="L18">
-        <v>1.122103769230556</v>
+        <v>1.122103769230563</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.6041495342335</v>
+        <v>2.604149534233329</v>
       </c>
       <c r="C19">
-        <v>0.3303411047969718</v>
+        <v>0.330341104796716</v>
       </c>
       <c r="D19">
-        <v>0.03699538616483977</v>
+        <v>0.03699538616483267</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0.6132949782895949</v>
       </c>
       <c r="K19">
-        <v>0.4596063035915421</v>
+        <v>0.4596063035915208</v>
       </c>
       <c r="L19">
-        <v>1.111382334424874</v>
+        <v>1.111382334424853</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.715802473198835</v>
+        <v>2.715802473198551</v>
       </c>
       <c r="C20">
-        <v>0.3421028965451995</v>
+        <v>0.3421028965449722</v>
       </c>
       <c r="D20">
-        <v>0.03704344370283508</v>
+        <v>0.03704344370262191</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.938270516524568</v>
+        <v>2.93827051652454</v>
       </c>
       <c r="G20">
-        <v>2.338974674426581</v>
+        <v>2.338974674426538</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0.4795369808841272</v>
       </c>
       <c r="L20">
-        <v>1.159820447165252</v>
+        <v>1.159820447165259</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.09755128324008</v>
+        <v>3.097551283240307</v>
       </c>
       <c r="C21">
-        <v>0.3821192898503227</v>
+        <v>0.3821192898502943</v>
       </c>
       <c r="D21">
-        <v>0.03729290682790776</v>
+        <v>0.03729290682777275</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.352801044062232</v>
+        <v>3.352801044062346</v>
       </c>
       <c r="C22">
-        <v>0.4087245573879272</v>
+        <v>0.4087245573876714</v>
       </c>
       <c r="D22">
-        <v>0.03753187185676055</v>
+        <v>0.03753187185675699</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.54378250743332</v>
+        <v>3.543782507433349</v>
       </c>
       <c r="G22">
-        <v>2.809876412342575</v>
+        <v>2.809876412342561</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7874911997133722</v>
+        <v>0.7874911997133509</v>
       </c>
       <c r="K22">
-        <v>0.5948834025112717</v>
+        <v>0.5948834025112859</v>
       </c>
       <c r="L22">
-        <v>1.438193633038097</v>
+        <v>1.438193633038125</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.215985941990709</v>
+        <v>3.215985941990539</v>
       </c>
       <c r="C23">
-        <v>0.3944778774508677</v>
+        <v>0.3944778774501287</v>
       </c>
       <c r="D23">
-        <v>0.0373966646927606</v>
+        <v>0.03739666469274994</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>3.412515841038442</v>
       </c>
       <c r="G23">
-        <v>2.707678383552633</v>
+        <v>2.707678383552647</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7556925790199429</v>
+        <v>0.7556925790199358</v>
       </c>
       <c r="K23">
-        <v>0.5698782929605244</v>
+        <v>0.5698782929605173</v>
       </c>
       <c r="L23">
-        <v>1.378119536975888</v>
+        <v>1.378119536975873</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>2.709648126111745</v>
       </c>
       <c r="C24">
-        <v>0.3414553115442516</v>
+        <v>0.3414553115440242</v>
       </c>
       <c r="D24">
-        <v>0.03704049780871088</v>
+        <v>0.03704049780872154</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.932493695587112</v>
+        <v>2.932493695587141</v>
       </c>
       <c r="G24">
-        <v>2.334488771467846</v>
+        <v>2.334488771467818</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6378735102778421</v>
+        <v>0.6378735102777853</v>
       </c>
       <c r="K24">
-        <v>0.4784361150387042</v>
+        <v>0.4784361150387397</v>
       </c>
       <c r="L24">
-        <v>1.157147697070734</v>
+        <v>1.157147697070705</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.183068621265932</v>
+        <v>2.183068621266102</v>
       </c>
       <c r="C25">
-        <v>0.2857049520163315</v>
+        <v>0.2857049520165731</v>
       </c>
       <c r="D25">
-        <v>0.03691891117159685</v>
+        <v>0.03691891117182067</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5150700608442378</v>
+        <v>0.5150700608442165</v>
       </c>
       <c r="K25">
         <v>0.3852487168480252</v>

--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807288716469969</v>
+        <v>1.807288716469884</v>
       </c>
       <c r="C2">
         <v>0.2454219179730472</v>
       </c>
       <c r="D2">
-        <v>0.03699730552947145</v>
+        <v>0.03699730552946789</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.103350971923291</v>
+        <v>2.103350971923305</v>
       </c>
       <c r="G2">
-        <v>1.692172119357068</v>
+        <v>1.692172119357053</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4272128388672911</v>
+        <v>0.4272128388672769</v>
       </c>
       <c r="K2">
-        <v>0.3200300844644062</v>
+        <v>0.3200300844644204</v>
       </c>
       <c r="L2">
         <v>0.7689994789489916</v>
@@ -453,19 +453,19 @@
         <v>1.558001509803773</v>
       </c>
       <c r="C3">
-        <v>0.2184010075415728</v>
+        <v>0.2184010075417717</v>
       </c>
       <c r="D3">
-        <v>0.03713163777214845</v>
+        <v>0.0371316377723474</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.881638558364415</v>
+        <v>1.881638558364429</v>
       </c>
       <c r="G3">
-        <v>1.521030641469821</v>
+        <v>1.521030641469835</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0.3687984337891308</v>
       </c>
       <c r="K3">
-        <v>0.2774111291922665</v>
+        <v>0.2774111291922523</v>
       </c>
       <c r="L3">
-        <v>0.663196086813727</v>
+        <v>0.6631960868137341</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.407000122446306</v>
+        <v>1.407000122446135</v>
       </c>
       <c r="C4">
-        <v>0.2018912755050906</v>
+        <v>0.2018912755047779</v>
       </c>
       <c r="D4">
-        <v>0.0372475644837067</v>
+        <v>0.03724756448350419</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>1.749267366093719</v>
       </c>
       <c r="G4">
-        <v>1.419009082708584</v>
+        <v>1.419009082708598</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0.251869010869548</v>
       </c>
       <c r="L4">
-        <v>0.599451229618488</v>
+        <v>0.5994512296184951</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.345905084960947</v>
+        <v>1.345905084961032</v>
       </c>
       <c r="C5">
-        <v>0.1951763382784435</v>
+        <v>0.1951763382783298</v>
       </c>
       <c r="D5">
-        <v>0.03730233507415903</v>
+        <v>0.0373023350742443</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>1.696167734096406</v>
       </c>
       <c r="G5">
-        <v>1.378120870560693</v>
+        <v>1.378120870560707</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3189960008801762</v>
+        <v>0.3189960008801833</v>
       </c>
       <c r="K5">
-        <v>0.2415973115141341</v>
+        <v>0.2415973115141483</v>
       </c>
       <c r="L5">
-        <v>0.5737389753537769</v>
+        <v>0.5737389753537698</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.335784640195129</v>
+        <v>1.335784640195158</v>
       </c>
       <c r="C6">
-        <v>0.1940619011000706</v>
+        <v>0.1940619011000564</v>
       </c>
       <c r="D6">
-        <v>0.03731186032582912</v>
+        <v>0.03731186032572964</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.687398621051784</v>
+        <v>1.68739862105177</v>
       </c>
       <c r="G6">
         <v>1.371370569104116</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3166168948851791</v>
+        <v>0.3166168948851578</v>
       </c>
       <c r="K6">
-        <v>0.2398994074204452</v>
+        <v>0.2398994074204168</v>
       </c>
       <c r="L6">
-        <v>0.5694842724820504</v>
+        <v>0.5694842724820361</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.406174494764286</v>
+        <v>1.4061744947644</v>
       </c>
       <c r="C7">
-        <v>0.2018006726700747</v>
+        <v>0.2018006726702595</v>
       </c>
       <c r="D7">
-        <v>0.03724827375376449</v>
+        <v>0.03724827375381068</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.748547964017419</v>
+        <v>1.748547964017405</v>
       </c>
       <c r="G7">
-        <v>1.418454975684597</v>
+        <v>1.418454975684583</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3331586971421814</v>
+        <v>0.3331586971421672</v>
       </c>
       <c r="K7">
-        <v>0.2517299545649152</v>
+        <v>0.2517299545649365</v>
       </c>
       <c r="L7">
-        <v>0.5991034481991093</v>
+        <v>0.5991034481991022</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.720856606497364</v>
+        <v>1.72085660649725</v>
       </c>
       <c r="C8">
         <v>0.2360835080379218</v>
       </c>
       <c r="D8">
-        <v>0.03703612338123108</v>
+        <v>0.03703612338142293</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.026059148894333</v>
+        <v>2.026059148894305</v>
       </c>
       <c r="G8">
         <v>1.63247523499588</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.406972825239805</v>
+        <v>0.4069728252397979</v>
       </c>
       <c r="K8">
-        <v>0.305192184547785</v>
+        <v>0.3051921845477565</v>
       </c>
       <c r="L8">
-        <v>0.7322388994795119</v>
+        <v>0.732238899479519</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>2.358292799038963</v>
       </c>
       <c r="C9">
-        <v>0.3043366155468306</v>
+        <v>0.3043366155468732</v>
       </c>
       <c r="D9">
-        <v>0.03693029822531102</v>
+        <v>0.03693029822556326</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.605247708906404</v>
+        <v>2.605247708906376</v>
       </c>
       <c r="G9">
-        <v>2.080597312321146</v>
+        <v>2.080597312321103</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5559699348766429</v>
+        <v>0.5559699348766358</v>
       </c>
       <c r="K9">
-        <v>0.416033100269253</v>
+        <v>0.4160331002692317</v>
       </c>
       <c r="L9">
-        <v>1.005111985413393</v>
+        <v>1.005111985413386</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,10 +719,10 @@
         <v>2.845281016563888</v>
       </c>
       <c r="C10">
-        <v>0.355708253945437</v>
+        <v>0.3557082539452239</v>
       </c>
       <c r="D10">
-        <v>0.0371133904917258</v>
+        <v>0.03711339049184303</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>3.060146488584991</v>
       </c>
       <c r="G10">
-        <v>2.433646379691751</v>
+        <v>2.433646379691766</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0.6694563690098505</v>
       </c>
       <c r="K10">
-        <v>0.5027587004141978</v>
+        <v>0.5027587004142049</v>
       </c>
       <c r="L10">
-        <v>1.216126868860911</v>
+        <v>1.216126868860925</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.07249719010531</v>
+        <v>3.072497190105366</v>
       </c>
       <c r="C11">
-        <v>0.3795016953743726</v>
+        <v>0.3795016953744295</v>
       </c>
       <c r="D11">
-        <v>0.03727254499279908</v>
+        <v>0.03727254499282751</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.275539284135334</v>
+        <v>3.275539284135306</v>
       </c>
       <c r="G11">
-        <v>2.601099770304728</v>
+        <v>2.601099770304714</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0.7223269944182036</v>
       </c>
       <c r="K11">
-        <v>0.5437879445503526</v>
+        <v>0.5437879445503384</v>
       </c>
       <c r="L11">
         <v>1.315280812933267</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.159511263045147</v>
+        <v>3.159511263044976</v>
       </c>
       <c r="C12">
-        <v>0.3885878636663023</v>
+        <v>0.3885878636658333</v>
       </c>
       <c r="D12">
-        <v>0.03734564585444033</v>
+        <v>0.03734564585440836</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.358518314503812</v>
+        <v>3.35851831450384</v>
       </c>
       <c r="G12">
         <v>2.665656008370306</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7425624580952288</v>
+        <v>0.7425624580952075</v>
       </c>
       <c r="K12">
-        <v>0.5595930852766031</v>
+        <v>0.5595930852766102</v>
       </c>
       <c r="L12">
-        <v>1.353366963183191</v>
+        <v>1.353366963183163</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.140725288306498</v>
+        <v>3.140725288306328</v>
       </c>
       <c r="C13">
-        <v>0.3866273462539596</v>
+        <v>0.3866273462539453</v>
       </c>
       <c r="D13">
-        <v>0.03732929756903758</v>
+        <v>0.03732929756893455</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.340580942647591</v>
+        <v>3.340580942647563</v>
       </c>
       <c r="G13">
-        <v>2.651698945549214</v>
+        <v>2.651698945549199</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7381942316531962</v>
+        <v>0.7381942316532033</v>
       </c>
       <c r="K13">
-        <v>0.5561765101461162</v>
+        <v>0.5561765101461447</v>
       </c>
       <c r="L13">
-        <v>1.345139005468241</v>
+        <v>1.345139005468198</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,10 +871,10 @@
         <v>3.079635441584855</v>
       </c>
       <c r="C14">
-        <v>0.3802476004340747</v>
+        <v>0.3802476004338189</v>
       </c>
       <c r="D14">
-        <v>0.03727828973637415</v>
+        <v>0.03727828973614677</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3.28233644016845</v>
       </c>
       <c r="G14">
-        <v>2.606386902506628</v>
+        <v>2.606386902506614</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7239872586994736</v>
+        <v>0.723987258699438</v>
       </c>
       <c r="K14">
-        <v>0.545082607966016</v>
+        <v>0.5450826079660089</v>
       </c>
       <c r="L14">
-        <v>1.318402863737461</v>
+        <v>1.318402863737447</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,16 +912,16 @@
         <v>0.3763502180646157</v>
       </c>
       <c r="D15">
-        <v>0.03724877949199623</v>
+        <v>0.03724877949198557</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.246850542302099</v>
+        <v>3.246850542302155</v>
       </c>
       <c r="G15">
-        <v>2.578786240986162</v>
+        <v>2.57878624098619</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0.7153141475772955</v>
       </c>
       <c r="K15">
-        <v>0.5383235391325272</v>
+        <v>0.5383235391325201</v>
       </c>
       <c r="L15">
-        <v>1.302099053453006</v>
+        <v>1.302099053453034</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.830559045444431</v>
+        <v>2.830559045444261</v>
       </c>
       <c r="C16">
-        <v>0.3541630770869801</v>
+        <v>0.3541630770867243</v>
       </c>
       <c r="D16">
-        <v>0.03710467351919888</v>
+        <v>0.0371046735193481</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.04625660692804</v>
+        <v>3.046256606927983</v>
       </c>
       <c r="G16">
-        <v>2.42285396407118</v>
+        <v>2.422853964071166</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0.5001124925475295</v>
       </c>
       <c r="L16">
-        <v>1.209717474678868</v>
+        <v>1.209717474678854</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.702193030689216</v>
+        <v>2.702193030688989</v>
       </c>
       <c r="C17">
-        <v>0.3406707446960553</v>
+        <v>0.3406707446960411</v>
       </c>
       <c r="D17">
-        <v>0.03703697553602225</v>
+        <v>0.03703697553588725</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>2.925497909860439</v>
       </c>
       <c r="G17">
-        <v>2.329056478947464</v>
+        <v>2.329056478947493</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6361370305375686</v>
+        <v>0.6361370305375544</v>
       </c>
       <c r="K17">
-        <v>0.4771029312672965</v>
+        <v>0.4771029312673392</v>
       </c>
       <c r="L17">
-        <v>1.153910489058426</v>
+        <v>1.153910489058447</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.628884768098828</v>
+        <v>2.628884768098885</v>
       </c>
       <c r="C18">
-        <v>0.3329492231627285</v>
+        <v>0.3329492231622737</v>
       </c>
       <c r="D18">
-        <v>0.03700504666250737</v>
+        <v>0.03700504666238658</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.856823419816607</v>
+        <v>2.856823419816635</v>
       </c>
       <c r="G18">
-        <v>2.275740607686956</v>
+        <v>2.275740607686927</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6190586953369248</v>
+        <v>0.6190586953369177</v>
       </c>
       <c r="K18">
-        <v>0.4640141058574869</v>
+        <v>0.4640141058574727</v>
       </c>
       <c r="L18">
-        <v>1.122103769230563</v>
+        <v>1.122103769230556</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.604149534233329</v>
+        <v>2.6041495342335</v>
       </c>
       <c r="C19">
-        <v>0.330341104796716</v>
+        <v>0.3303411047969718</v>
       </c>
       <c r="D19">
-        <v>0.03699538616483267</v>
+        <v>0.03699538616483977</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0.6132949782895949</v>
       </c>
       <c r="K19">
-        <v>0.4596063035915208</v>
+        <v>0.4596063035915421</v>
       </c>
       <c r="L19">
-        <v>1.111382334424853</v>
+        <v>1.111382334424874</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.715802473198551</v>
+        <v>2.715802473198835</v>
       </c>
       <c r="C20">
-        <v>0.3421028965449722</v>
+        <v>0.3421028965451995</v>
       </c>
       <c r="D20">
-        <v>0.03704344370262191</v>
+        <v>0.03704344370283508</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.93827051652454</v>
+        <v>2.938270516524568</v>
       </c>
       <c r="G20">
-        <v>2.338974674426538</v>
+        <v>2.338974674426581</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0.4795369808841272</v>
       </c>
       <c r="L20">
-        <v>1.159820447165259</v>
+        <v>1.159820447165252</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.097551283240307</v>
+        <v>3.09755128324008</v>
       </c>
       <c r="C21">
-        <v>0.3821192898502943</v>
+        <v>0.3821192898503227</v>
       </c>
       <c r="D21">
-        <v>0.03729290682777275</v>
+        <v>0.03729290682790776</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.352801044062346</v>
+        <v>3.352801044062232</v>
       </c>
       <c r="C22">
-        <v>0.4087245573876714</v>
+        <v>0.4087245573879272</v>
       </c>
       <c r="D22">
-        <v>0.03753187185675699</v>
+        <v>0.03753187185676055</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.543782507433349</v>
+        <v>3.54378250743332</v>
       </c>
       <c r="G22">
-        <v>2.809876412342561</v>
+        <v>2.809876412342575</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7874911997133509</v>
+        <v>0.7874911997133722</v>
       </c>
       <c r="K22">
-        <v>0.5948834025112859</v>
+        <v>0.5948834025112717</v>
       </c>
       <c r="L22">
-        <v>1.438193633038125</v>
+        <v>1.438193633038097</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.215985941990539</v>
+        <v>3.215985941990709</v>
       </c>
       <c r="C23">
-        <v>0.3944778774501287</v>
+        <v>0.3944778774508677</v>
       </c>
       <c r="D23">
-        <v>0.03739666469274994</v>
+        <v>0.0373966646927606</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>3.412515841038442</v>
       </c>
       <c r="G23">
-        <v>2.707678383552647</v>
+        <v>2.707678383552633</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7556925790199358</v>
+        <v>0.7556925790199429</v>
       </c>
       <c r="K23">
-        <v>0.5698782929605173</v>
+        <v>0.5698782929605244</v>
       </c>
       <c r="L23">
-        <v>1.378119536975873</v>
+        <v>1.378119536975888</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>2.709648126111745</v>
       </c>
       <c r="C24">
-        <v>0.3414553115440242</v>
+        <v>0.3414553115442516</v>
       </c>
       <c r="D24">
-        <v>0.03704049780872154</v>
+        <v>0.03704049780871088</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.932493695587141</v>
+        <v>2.932493695587112</v>
       </c>
       <c r="G24">
-        <v>2.334488771467818</v>
+        <v>2.334488771467846</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6378735102777853</v>
+        <v>0.6378735102778421</v>
       </c>
       <c r="K24">
-        <v>0.4784361150387397</v>
+        <v>0.4784361150387042</v>
       </c>
       <c r="L24">
-        <v>1.157147697070705</v>
+        <v>1.157147697070734</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.183068621266102</v>
+        <v>2.183068621265932</v>
       </c>
       <c r="C25">
-        <v>0.2857049520165731</v>
+        <v>0.2857049520163315</v>
       </c>
       <c r="D25">
-        <v>0.03691891117182067</v>
+        <v>0.03691891117159685</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5150700608442165</v>
+        <v>0.5150700608442378</v>
       </c>
       <c r="K25">
         <v>0.3852487168480252</v>

--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807288716469884</v>
+        <v>1.807220283633626</v>
       </c>
       <c r="C2">
-        <v>0.2454219179730472</v>
+        <v>0.2453815776615471</v>
       </c>
       <c r="D2">
-        <v>0.03699730552946789</v>
+        <v>0.03684758737622928</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.103350971923305</v>
+        <v>2.099013055999094</v>
       </c>
       <c r="G2">
-        <v>1.692172119357053</v>
+        <v>0.5384007081323006</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.153282086648559</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4272128388672769</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3200300844644204</v>
+        <v>0.4271883252063375</v>
       </c>
       <c r="L2">
-        <v>0.7689994789489916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3200257029616225</v>
+      </c>
+      <c r="M2">
+        <v>0.7689867762555025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.558001509803773</v>
+        <v>1.557968165308353</v>
       </c>
       <c r="C3">
-        <v>0.2184010075417717</v>
+        <v>0.2183789865026569</v>
       </c>
       <c r="D3">
-        <v>0.0371316377723474</v>
+        <v>0.03699477514559391</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.881638558364429</v>
+        <v>1.877805079680812</v>
       </c>
       <c r="G3">
-        <v>1.521030641469835</v>
+        <v>0.4789559341970318</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.042200007051818</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3687984337891308</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2774111291922523</v>
+        <v>0.3687859499287214</v>
       </c>
       <c r="L3">
-        <v>0.6631960868137341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2774087564039434</v>
+      </c>
+      <c r="M3">
+        <v>0.6631902860465075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.407000122446135</v>
+        <v>1.406984341152082</v>
       </c>
       <c r="C4">
-        <v>0.2018912755047779</v>
+        <v>0.2018799538407308</v>
       </c>
       <c r="D4">
-        <v>0.03724756448350419</v>
+        <v>0.03711840662285226</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.749267366093719</v>
+        <v>1.745738303711875</v>
       </c>
       <c r="G4">
-        <v>1.419009082708598</v>
+        <v>0.4434458482029271</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9760594550683379</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3333526486757421</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.251869010869548</v>
+        <v>0.3333465359135701</v>
       </c>
       <c r="L4">
-        <v>0.5994512296184951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2518677895103494</v>
+      </c>
+      <c r="M4">
+        <v>0.5994486219341724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.345905084961032</v>
+        <v>1.345895583734659</v>
       </c>
       <c r="C5">
-        <v>0.1951763382783298</v>
+        <v>0.1951692622357371</v>
       </c>
       <c r="D5">
-        <v>0.0373023350742443</v>
+        <v>0.03717627597812623</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.696167734096406</v>
+        <v>1.692761619408614</v>
       </c>
       <c r="G5">
-        <v>1.378120870560707</v>
+        <v>0.4291957725342428</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9495711178561237</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3189960008801833</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2415973115141483</v>
+        <v>0.3189922617417693</v>
       </c>
       <c r="L5">
-        <v>0.5737389753537698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2415965466518912</v>
+      </c>
+      <c r="M5">
+        <v>0.573737443682127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.335784640195158</v>
+        <v>1.335776132168888</v>
       </c>
       <c r="C6">
-        <v>0.1940619011000564</v>
+        <v>0.1940555237706434</v>
       </c>
       <c r="D6">
-        <v>0.03731186032572964</v>
+        <v>0.03718631347904022</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.68739862105177</v>
+        <v>1.68401286134916</v>
       </c>
       <c r="G6">
-        <v>1.371370569104116</v>
+        <v>0.426842099323963</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9451992893269505</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3166168948851578</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2398994074204168</v>
+        <v>0.3166135373270151</v>
       </c>
       <c r="L6">
-        <v>0.5694842724820361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2398987177950573</v>
+      </c>
+      <c r="M6">
+        <v>0.5694829068872806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.4061744947644</v>
+        <v>1.406158801562498</v>
       </c>
       <c r="C7">
-        <v>0.2018006726702595</v>
+        <v>0.2017894086979624</v>
       </c>
       <c r="D7">
-        <v>0.03724827375381068</v>
+        <v>0.03711915784190367</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.748547964017405</v>
+        <v>1.745020563934318</v>
       </c>
       <c r="G7">
-        <v>1.418454975684583</v>
+        <v>0.4432528092073511</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9757004124278552</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3331586971421672</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2517299545649365</v>
+        <v>0.333152617252388</v>
       </c>
       <c r="L7">
-        <v>0.5991034481991022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2517287394043279</v>
+      </c>
+      <c r="M7">
+        <v>0.5991008558920043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.72085660649725</v>
+        <v>1.720801177474556</v>
       </c>
       <c r="C8">
-        <v>0.2360835080379218</v>
+        <v>0.2360496130231127</v>
       </c>
       <c r="D8">
-        <v>0.03703612338142293</v>
+        <v>0.03689088100166416</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.026059148894305</v>
+        <v>2.021896411608864</v>
       </c>
       <c r="G8">
-        <v>1.63247523499588</v>
+        <v>0.5176811222115845</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.114518222977694</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4069728252397979</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3051921845477565</v>
+        <v>0.4069526909484651</v>
       </c>
       <c r="L8">
-        <v>0.732238899479519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3051885178670091</v>
+      </c>
+      <c r="M8">
+        <v>0.7322288175571288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.358292799038963</v>
+        <v>2.358121444518133</v>
       </c>
       <c r="C9">
-        <v>0.3043366155468732</v>
+        <v>0.3042527852411752</v>
       </c>
       <c r="D9">
-        <v>0.03693029822556326</v>
+        <v>0.03675161259496917</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.605247708906376</v>
+        <v>2.599785112177642</v>
       </c>
       <c r="G9">
-        <v>2.080597312321103</v>
+        <v>0.6728917246423265</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.40584659062678</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5559699348766358</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4160331002692317</v>
+        <v>0.5559125018402042</v>
       </c>
       <c r="L9">
-        <v>1.005111985413386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4160235289804959</v>
+      </c>
+      <c r="M9">
+        <v>1.005076936427095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.845281016563888</v>
+        <v>2.84499084163366</v>
       </c>
       <c r="C10">
-        <v>0.3557082539452239</v>
+        <v>0.3555824140354389</v>
       </c>
       <c r="D10">
-        <v>0.03711339049184303</v>
+        <v>0.03690851545593787</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.060146488584991</v>
+        <v>3.053676915470959</v>
       </c>
       <c r="G10">
-        <v>2.433646379691766</v>
+        <v>0.7947673430587656</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.635795309627014</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6694563690098505</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5027587004142049</v>
+        <v>0.6693628578201398</v>
       </c>
       <c r="L10">
-        <v>1.216126868860925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.502743313451262</v>
+      </c>
+      <c r="M10">
+        <v>1.216063858135485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.072497190105366</v>
+        <v>3.072142764350872</v>
       </c>
       <c r="C11">
-        <v>0.3795016953744295</v>
+        <v>0.3793550658563447</v>
       </c>
       <c r="D11">
-        <v>0.03727254499282751</v>
+        <v>0.03705527062224334</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.275539284135306</v>
+        <v>3.26859519031666</v>
       </c>
       <c r="G11">
-        <v>2.601099770304714</v>
+        <v>0.8524814761154431</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.74495818260128</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7223269944182036</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5437879445503384</v>
+        <v>0.7222144359732852</v>
       </c>
       <c r="L11">
-        <v>1.315280812933267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.5437693392654808</v>
+      </c>
+      <c r="M11">
+        <v>1.315202032811527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.159511263044976</v>
+        <v>3.159130744117135</v>
       </c>
       <c r="C12">
-        <v>0.3885878636658333</v>
+        <v>0.3884330675070942</v>
       </c>
       <c r="D12">
-        <v>0.03734564585440836</v>
+        <v>0.03712359323135672</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.35851831450384</v>
+        <v>3.35139165299023</v>
       </c>
       <c r="G12">
-        <v>2.665656008370306</v>
+        <v>0.8747176781096044</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.787056610010467</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7425624580952075</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5595930852766102</v>
+        <v>0.742442231350573</v>
       </c>
       <c r="L12">
-        <v>1.353366963183163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.5595731505878234</v>
+      </c>
+      <c r="M12">
+        <v>1.353281671402385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.140725288306328</v>
+        <v>3.140350472718922</v>
       </c>
       <c r="C13">
-        <v>0.3866273462539453</v>
+        <v>0.3864743229404297</v>
       </c>
       <c r="D13">
-        <v>0.03732929756893455</v>
+        <v>0.03710827794425953</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.340580942647563</v>
+        <v>3.33349373740603</v>
       </c>
       <c r="G13">
-        <v>2.651698945549199</v>
+        <v>0.8699108196070426</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.777954291990994</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7381942316532033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5561765101461447</v>
+        <v>0.7380756780428825</v>
       </c>
       <c r="L13">
-        <v>1.345139005468198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5561568672231445</v>
+      </c>
+      <c r="M13">
+        <v>1.345055141963016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.079635441584855</v>
+        <v>3.079278906350282</v>
       </c>
       <c r="C14">
-        <v>0.3802476004338189</v>
+        <v>0.3801003052683143</v>
       </c>
       <c r="D14">
-        <v>0.03727828973614677</v>
+        <v>0.03706062399934851</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.28233644016845</v>
+        <v>3.275377387300381</v>
       </c>
       <c r="G14">
-        <v>2.606386902506614</v>
+        <v>0.8543028862840742</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.748405743411197</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.723987258699438</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5450826079660089</v>
+        <v>0.7238740789964382</v>
       </c>
       <c r="L14">
-        <v>1.318402863737447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5450638957176039</v>
+      </c>
+      <c r="M14">
+        <v>1.318323559381554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.042347721474073</v>
+        <v>3.042002144197284</v>
       </c>
       <c r="C15">
-        <v>0.3763502180646157</v>
+        <v>0.3762063915462761</v>
       </c>
       <c r="D15">
-        <v>0.03724877949198557</v>
+        <v>0.03703315689168818</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.246850542302155</v>
+        <v>3.239969595109812</v>
       </c>
       <c r="G15">
-        <v>2.57878624098619</v>
+        <v>0.8447939461669165</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.730408853503008</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7153141475772955</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5383235391325201</v>
+        <v>0.7152041977173127</v>
       </c>
       <c r="L15">
-        <v>1.302099053453034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5383053815666798</v>
+      </c>
+      <c r="M15">
+        <v>1.302022467986063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.830559045444261</v>
+        <v>2.830272840112571</v>
       </c>
       <c r="C16">
-        <v>0.3541630770867243</v>
+        <v>0.3540385577377947</v>
       </c>
       <c r="D16">
-        <v>0.0371046735193481</v>
+        <v>0.03690059796406331</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.046256606927983</v>
+        <v>3.039817672080687</v>
       </c>
       <c r="G16">
-        <v>2.422853964071166</v>
+        <v>0.7910457980425036</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.628761672527048</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6660291275336547</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5001124925475295</v>
+        <v>0.6659368018590897</v>
       </c>
       <c r="L16">
-        <v>1.209717474678854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.5000973021240043</v>
+      </c>
+      <c r="M16">
+        <v>1.209655424941218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.702193030688989</v>
+        <v>2.701940441461772</v>
       </c>
       <c r="C17">
-        <v>0.3406707446960411</v>
+        <v>0.3405576048250651</v>
       </c>
       <c r="D17">
-        <v>0.03703697553588725</v>
+        <v>0.03683985063416628</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.925497909860439</v>
+        <v>2.919325585047261</v>
       </c>
       <c r="G17">
-        <v>2.329056478947493</v>
+        <v>0.7586915179260956</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.567642554820949</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6361370305375544</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4771029312673392</v>
+        <v>0.6360547914370969</v>
       </c>
       <c r="L17">
-        <v>1.153910489058447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4770893964106975</v>
+      </c>
+      <c r="M17">
+        <v>1.153856509522036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.628884768098885</v>
+        <v>2.628650574573783</v>
       </c>
       <c r="C18">
-        <v>0.3329492231622737</v>
+        <v>0.3328424740267906</v>
       </c>
       <c r="D18">
-        <v>0.03700504666238658</v>
+        <v>0.0368118747674373</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.856823419816635</v>
+        <v>2.850802929647926</v>
       </c>
       <c r="G18">
-        <v>2.275740607686927</v>
+        <v>0.7402924249886809</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.532910410487091</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6190586953369177</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4640141058574727</v>
+        <v>0.6189820150423344</v>
       </c>
       <c r="L18">
-        <v>1.122103769230556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4640014713973173</v>
+      </c>
+      <c r="M18">
+        <v>1.122054151612296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.6041495342335</v>
+        <v>2.6039214160146</v>
       </c>
       <c r="C19">
-        <v>0.3303411047969718</v>
+        <v>0.3302364943926221</v>
       </c>
       <c r="D19">
-        <v>0.03699538616483977</v>
+        <v>0.03680354535846675</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.833700222237155</v>
+        <v>2.827730895194009</v>
       </c>
       <c r="G19">
-        <v>2.257793106186753</v>
+        <v>0.7340973741039534</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.521220185483756</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6132949782895949</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4596063035915421</v>
+        <v>0.6132201405421327</v>
       </c>
       <c r="L19">
-        <v>1.111382334424874</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4595939658363122</v>
+      </c>
+      <c r="M19">
+        <v>1.111334148378802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.715802473198835</v>
+        <v>2.71554640468014</v>
       </c>
       <c r="C20">
-        <v>0.3421028965451995</v>
+        <v>0.3419885616466019</v>
       </c>
       <c r="D20">
-        <v>0.03704344370283508</v>
+        <v>0.03684558361965884</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.938270516524568</v>
+        <v>2.932069970592551</v>
       </c>
       <c r="G20">
-        <v>2.338974674426581</v>
+        <v>0.762113556843758</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.574104399070293</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6393069712145376</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4795369808841272</v>
+        <v>0.6392236840142829</v>
       </c>
       <c r="L20">
-        <v>1.159820447165252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4795232753375984</v>
+      </c>
+      <c r="M20">
+        <v>1.159765638175578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.09755128324008</v>
+        <v>3.097189429097796</v>
       </c>
       <c r="C21">
-        <v>0.3821192898503227</v>
+        <v>0.3819703206336271</v>
       </c>
       <c r="D21">
-        <v>0.03729290682790776</v>
+        <v>0.03707425833642475</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.299404161523739</v>
+        <v>3.292407549794632</v>
       </c>
       <c r="G21">
-        <v>2.619663680380128</v>
+        <v>0.8588765017092896</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.757063309596802</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7281540625939797</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.548333515452498</v>
+        <v>0.7280393174862354</v>
       </c>
       <c r="L21">
-        <v>1.326240568201712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.54831453310954</v>
+      </c>
+      <c r="M21">
+        <v>1.326159940289173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.352801044062232</v>
+        <v>3.352359598602504</v>
       </c>
       <c r="C22">
-        <v>0.4087245573879272</v>
+        <v>0.4085512073283155</v>
       </c>
       <c r="D22">
-        <v>0.03753187185676055</v>
+        <v>0.03729914620059205</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.54378250743332</v>
+        <v>3.536248547356877</v>
       </c>
       <c r="G22">
-        <v>2.809876412342575</v>
+        <v>0.9243688484388599</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.881131775309029</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7874911997133722</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5948834025112717</v>
+        <v>0.7873531937669043</v>
       </c>
       <c r="L22">
-        <v>1.438193633038097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5948603073292063</v>
+      </c>
+      <c r="M22">
+        <v>1.438092918917931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.215985941990709</v>
+        <v>3.215588045297579</v>
       </c>
       <c r="C23">
-        <v>0.3944778774508677</v>
+        <v>0.3943177194210534</v>
       </c>
       <c r="D23">
-        <v>0.0373966646927606</v>
+        <v>0.03717150204016306</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.412515841038442</v>
+        <v>3.405270429016667</v>
       </c>
       <c r="G23">
-        <v>2.707678383552633</v>
+        <v>0.889188339605667</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.814464226956034</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7556925790199429</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5698782929605244</v>
+        <v>0.7555672640774702</v>
       </c>
       <c r="L23">
-        <v>1.378119536975888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5698574650571402</v>
+      </c>
+      <c r="M23">
+        <v>1.378029876614875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.709648126111745</v>
+        <v>2.709393633457864</v>
       </c>
       <c r="C24">
-        <v>0.3414553115442516</v>
+        <v>0.3413415173851604</v>
       </c>
       <c r="D24">
-        <v>0.03704049780871088</v>
+        <v>0.03684297023398031</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.932493695587112</v>
+        <v>2.926305912879826</v>
       </c>
       <c r="G24">
-        <v>2.334488771467846</v>
+        <v>0.7605658284573593</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.571181742309875</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6378735102778421</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4784361150387042</v>
+        <v>0.6377906976657286</v>
       </c>
       <c r="L24">
-        <v>1.157147697070734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.47842248681917</v>
+      </c>
+      <c r="M24">
+        <v>1.157093263934627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.183068621265932</v>
+        <v>2.182933679857513</v>
       </c>
       <c r="C25">
-        <v>0.2857049520163315</v>
+        <v>0.2856354084553061</v>
       </c>
       <c r="D25">
-        <v>0.03691891117159685</v>
+        <v>0.03674951642707569</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.444040688266568</v>
+        <v>2.438937322610244</v>
       </c>
       <c r="G25">
-        <v>1.955699892380878</v>
+        <v>0.6297000932303263</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.324578130102452</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5150700608442378</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3852487168480252</v>
+        <v>0.5150240181765469</v>
       </c>
       <c r="L25">
-        <v>0.9297086083853472</v>
+        <v>0.3852409322506603</v>
+      </c>
+      <c r="M25">
+        <v>0.9296817236110684</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807220283633626</v>
+        <v>2.944252362552334</v>
       </c>
       <c r="C2">
-        <v>0.2453815776615471</v>
+        <v>0.721028786412603</v>
       </c>
       <c r="D2">
-        <v>0.03684758737622928</v>
+        <v>0.0427192215770944</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.099013055999094</v>
+        <v>1.839352194940375</v>
       </c>
       <c r="G2">
-        <v>0.5384007081323006</v>
+        <v>0.0007969021757337348</v>
       </c>
       <c r="H2">
-        <v>1.153282086648559</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1223681475871956</v>
       </c>
       <c r="K2">
-        <v>0.4271883252063375</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3200257029616225</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7689867762555025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8094725592553189</v>
+      </c>
+      <c r="N2">
+        <v>0.8289063625608719</v>
+      </c>
+      <c r="O2">
+        <v>1.22178699633622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.557968165308353</v>
+        <v>2.549374942621512</v>
       </c>
       <c r="C3">
-        <v>0.2183789865026569</v>
+        <v>0.6224490511502552</v>
       </c>
       <c r="D3">
-        <v>0.03699477514559391</v>
+        <v>0.03975153119520058</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.877805079680812</v>
+        <v>1.691630485612237</v>
       </c>
       <c r="G3">
-        <v>0.4789559341970318</v>
+        <v>0.0008044960803413173</v>
       </c>
       <c r="H3">
-        <v>1.042200007051818</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1157002560446756</v>
       </c>
       <c r="K3">
-        <v>0.3687859499287214</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2774087564039434</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6631902860465075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7058404898199697</v>
+      </c>
+      <c r="N3">
+        <v>0.8817415570993248</v>
+      </c>
+      <c r="O3">
+        <v>1.122014606087504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.406984341152082</v>
+        <v>2.31012630155459</v>
       </c>
       <c r="C4">
-        <v>0.2018799538407308</v>
+        <v>0.5626405970656947</v>
       </c>
       <c r="D4">
-        <v>0.03711840662285226</v>
+        <v>0.037955275154264</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.745738303711875</v>
+        <v>1.604994310466907</v>
       </c>
       <c r="G4">
-        <v>0.4434458482029271</v>
+        <v>0.0008092886440590913</v>
       </c>
       <c r="H4">
-        <v>0.9760594550683379</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1118264992977061</v>
       </c>
       <c r="K4">
-        <v>0.3333465359135701</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2518677895103494</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5994486219341724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6431860413547383</v>
+      </c>
+      <c r="N4">
+        <v>0.9157796191570284</v>
+      </c>
+      <c r="O4">
+        <v>1.063639015536253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.345895583734659</v>
+        <v>2.213326753998047</v>
       </c>
       <c r="C5">
-        <v>0.1951692622357371</v>
+        <v>0.5384211474494123</v>
       </c>
       <c r="D5">
-        <v>0.03717627597812623</v>
+        <v>0.03722932279098146</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.692761619408614</v>
+        <v>1.570623650299282</v>
       </c>
       <c r="G5">
-        <v>0.4291957725342428</v>
+        <v>0.000811275618476255</v>
       </c>
       <c r="H5">
-        <v>0.9495711178561237</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1102993565759789</v>
       </c>
       <c r="K5">
-        <v>0.3189922617417693</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2415965466518912</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.573737443682127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.617869288404961</v>
+      </c>
+      <c r="N5">
+        <v>0.9300351839593581</v>
+      </c>
+      <c r="O5">
+        <v>1.040512231215075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.335776132168888</v>
+        <v>2.197292248265057</v>
       </c>
       <c r="C6">
-        <v>0.1940555237706434</v>
+        <v>0.5344079888452882</v>
       </c>
       <c r="D6">
-        <v>0.03718631347904022</v>
+        <v>0.03710913035611796</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.68401286134916</v>
+        <v>1.564970411096553</v>
       </c>
       <c r="G6">
-        <v>0.426842099323963</v>
+        <v>0.0008116076420209532</v>
       </c>
       <c r="H6">
-        <v>0.9451992893269505</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1100487725339363</v>
       </c>
       <c r="K6">
-        <v>0.3166135373270151</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2398987177950573</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5694829068872806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6136776402989028</v>
+      </c>
+      <c r="N6">
+        <v>0.9324250829671179</v>
+      </c>
+      <c r="O6">
+        <v>1.036710243864022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.406158801562498</v>
+        <v>2.308818149704337</v>
       </c>
       <c r="C7">
-        <v>0.2017894086979624</v>
+        <v>0.562313381110755</v>
       </c>
       <c r="D7">
-        <v>0.03711915784190367</v>
+        <v>0.03794546086730932</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.745020563934318</v>
+        <v>1.604527104264861</v>
       </c>
       <c r="G7">
-        <v>0.4432528092073511</v>
+        <v>0.0008093153018813164</v>
       </c>
       <c r="H7">
-        <v>0.9757004124278552</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1118057004429218</v>
       </c>
       <c r="K7">
-        <v>0.333152617252388</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2517287394043279</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5991008558920043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6428437764009232</v>
+      </c>
+      <c r="N7">
+        <v>0.915970337975466</v>
+      </c>
+      <c r="O7">
+        <v>1.063324520907869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.720801177474556</v>
+        <v>2.807363564498303</v>
       </c>
       <c r="C8">
-        <v>0.2360496130231127</v>
+        <v>0.6868714452431277</v>
       </c>
       <c r="D8">
-        <v>0.03689088100166416</v>
+        <v>0.04169027785783896</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.021896411608864</v>
+        <v>1.787518740757264</v>
       </c>
       <c r="G8">
-        <v>0.5176811222115845</v>
+        <v>0.0007994944161309261</v>
       </c>
       <c r="H8">
-        <v>1.114518222977694</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1200208388065462</v>
       </c>
       <c r="K8">
-        <v>0.4069526909484651</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3051885178670091</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7322288175571288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7735188100397039</v>
+      </c>
+      <c r="N8">
+        <v>0.8467819367820866</v>
+      </c>
+      <c r="O8">
+        <v>1.186746710977602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.358121444518133</v>
+        <v>3.815968685424991</v>
       </c>
       <c r="C9">
-        <v>0.3042527852411752</v>
+        <v>0.9382454940222829</v>
       </c>
       <c r="D9">
-        <v>0.03675161259496917</v>
+        <v>0.04926414931946255</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.599785112177642</v>
+        <v>2.182993950374993</v>
       </c>
       <c r="G9">
-        <v>0.6728917246423265</v>
+        <v>0.000781201607566007</v>
       </c>
       <c r="H9">
-        <v>1.40584659062678</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1380756938552068</v>
       </c>
       <c r="K9">
-        <v>0.5559125018402042</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4160235289804959</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.005076936427095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.039012652783256</v>
+      </c>
+      <c r="N9">
+        <v>0.7246046842274367</v>
+      </c>
+      <c r="O9">
+        <v>1.454834044004016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.84499084163366</v>
+        <v>4.584432374175606</v>
       </c>
       <c r="C10">
-        <v>0.3555824140354389</v>
+        <v>1.129461375344135</v>
       </c>
       <c r="D10">
-        <v>0.03690851545593787</v>
+        <v>0.05500839962580528</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.053676915470959</v>
+        <v>2.50265411311446</v>
       </c>
       <c r="G10">
-        <v>0.7947673430587656</v>
+        <v>0.0007682512264874778</v>
       </c>
       <c r="H10">
-        <v>1.635795309627014</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1528302779142834</v>
       </c>
       <c r="K10">
-        <v>0.6693628578201398</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.502743313451262</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.216063858135485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.242030268831996</v>
+      </c>
+      <c r="N10">
+        <v>0.6443507984504606</v>
+      </c>
+      <c r="O10">
+        <v>1.672590890352964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.072142764350872</v>
+        <v>4.94216823809694</v>
       </c>
       <c r="C11">
-        <v>0.3793550658563447</v>
+        <v>1.218430911298356</v>
       </c>
       <c r="D11">
-        <v>0.03705527062224334</v>
+        <v>0.05767087773499213</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.26859519031666</v>
+        <v>2.656122089903818</v>
       </c>
       <c r="G11">
-        <v>0.8524814761154431</v>
+        <v>0.0007624409311968427</v>
       </c>
       <c r="H11">
-        <v>1.74495818260128</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1599431519542804</v>
       </c>
       <c r="K11">
-        <v>0.7222144359732852</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5437693392654808</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.315202032811527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.336708900765785</v>
+      </c>
+      <c r="N11">
+        <v>0.610233794131787</v>
+      </c>
+      <c r="O11">
+        <v>1.77742144548823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.159130744117135</v>
+        <v>5.079013685915299</v>
       </c>
       <c r="C12">
-        <v>0.3884330675070942</v>
+        <v>1.252460365102877</v>
       </c>
       <c r="D12">
-        <v>0.03712359323135672</v>
+        <v>0.05868717157557057</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.35139165299023</v>
+        <v>2.715559026108252</v>
       </c>
       <c r="G12">
-        <v>0.8747176781096044</v>
+        <v>0.0007602499948824191</v>
       </c>
       <c r="H12">
-        <v>1.787056610010467</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.162701592838097</v>
       </c>
       <c r="K12">
-        <v>0.742442231350573</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5595731505878234</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.353281671402385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.372951727064276</v>
+      </c>
+      <c r="N12">
+        <v>0.597690075885815</v>
+      </c>
+      <c r="O12">
+        <v>1.818067591658078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.140350472718922</v>
+        <v>5.049476707176041</v>
       </c>
       <c r="C13">
-        <v>0.3864743229404297</v>
+        <v>1.245115531293209</v>
       </c>
       <c r="D13">
-        <v>0.03710827794425953</v>
+        <v>0.05846791869002743</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.33349373740603</v>
+        <v>2.702696594369826</v>
       </c>
       <c r="G13">
-        <v>0.8699108196070426</v>
+        <v>0.0007607214789052622</v>
       </c>
       <c r="H13">
-        <v>1.777954291990994</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.162104498889093</v>
       </c>
       <c r="K13">
-        <v>0.7380756780428825</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5561568672231445</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.345055141963016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.365127874682074</v>
+      </c>
+      <c r="N13">
+        <v>0.6003743324748854</v>
+      </c>
+      <c r="O13">
+        <v>1.809269448488195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.079278906350282</v>
+        <v>4.953397697052765</v>
       </c>
       <c r="C14">
-        <v>0.3801003052683143</v>
+        <v>1.221223418972954</v>
       </c>
       <c r="D14">
-        <v>0.03706062399934851</v>
+        <v>0.05775432105972556</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.275377387300381</v>
+        <v>2.660984496816525</v>
       </c>
       <c r="G14">
-        <v>0.8543028862840742</v>
+        <v>0.0007622605095736405</v>
       </c>
       <c r="H14">
-        <v>1.748405743411197</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1601687439109725</v>
       </c>
       <c r="K14">
-        <v>0.7238740789964382</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5450638957176039</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.318323559381554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.339682458022764</v>
+      </c>
+      <c r="N14">
+        <v>0.6091940895140908</v>
+      </c>
+      <c r="O14">
+        <v>1.780745671719544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.042002144197284</v>
+        <v>4.894732602652368</v>
       </c>
       <c r="C15">
-        <v>0.3762063915462761</v>
+        <v>1.206634605773502</v>
       </c>
       <c r="D15">
-        <v>0.03703315689168818</v>
+        <v>0.05731830401897753</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.239969595109812</v>
+        <v>2.635612001135485</v>
       </c>
       <c r="G15">
-        <v>0.8447939461669165</v>
+        <v>0.000763204346841311</v>
       </c>
       <c r="H15">
-        <v>1.730408853503008</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1589917280276723</v>
       </c>
       <c r="K15">
-        <v>0.7152041977173127</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5383053815666798</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.302022467986063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.324148978169987</v>
+      </c>
+      <c r="N15">
+        <v>0.6146463796885016</v>
+      </c>
+      <c r="O15">
+        <v>1.763401422918108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.830272840112571</v>
+        <v>4.561234656587658</v>
       </c>
       <c r="C16">
-        <v>0.3540385577377947</v>
+        <v>1.123691340363109</v>
       </c>
       <c r="D16">
-        <v>0.03690059796406331</v>
+        <v>0.05483547416384482</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.039817672080687</v>
+        <v>2.492800227496289</v>
       </c>
       <c r="G16">
-        <v>0.7910457980425036</v>
+        <v>0.0007686323772492091</v>
       </c>
       <c r="H16">
-        <v>1.628761672527048</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1523741067936371</v>
       </c>
       <c r="K16">
-        <v>0.6659368018590897</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5000973021240043</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.209655424941218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.235894194571557</v>
+      </c>
+      <c r="N16">
+        <v>0.6466311686060138</v>
+      </c>
+      <c r="O16">
+        <v>1.665865962068267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.701940441461772</v>
+        <v>4.358872446415887</v>
       </c>
       <c r="C17">
-        <v>0.3405576048250651</v>
+        <v>1.073352432541469</v>
       </c>
       <c r="D17">
-        <v>0.03683985063416628</v>
+        <v>0.05332563786770805</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.919325585047261</v>
+        <v>2.407362873224926</v>
       </c>
       <c r="G17">
-        <v>0.7586915179260956</v>
+        <v>0.0007719814399444374</v>
       </c>
       <c r="H17">
-        <v>1.567642554820949</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.148422024276222</v>
       </c>
       <c r="K17">
-        <v>0.6360547914370969</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4770893964106975</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.153856509522036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.182385802253492</v>
+      </c>
+      <c r="N17">
+        <v>0.6668866079430558</v>
+      </c>
+      <c r="O17">
+        <v>1.607589670009759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.628650574573783</v>
+        <v>4.243233223556331</v>
       </c>
       <c r="C18">
-        <v>0.3328424740267906</v>
+        <v>1.044582053191476</v>
       </c>
       <c r="D18">
-        <v>0.0368118747674373</v>
+        <v>0.05246180357721641</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.850802929647926</v>
+        <v>2.358968629599886</v>
       </c>
       <c r="G18">
-        <v>0.7402924249886809</v>
+        <v>0.0007739155017341347</v>
       </c>
       <c r="H18">
-        <v>1.532910410487091</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1461861444783992</v>
       </c>
       <c r="K18">
-        <v>0.6189820150423344</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4640014713973173</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.122054151612296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.151824307967715</v>
+      </c>
+      <c r="N18">
+        <v>0.6787599184262234</v>
+      </c>
+      <c r="O18">
+        <v>1.574606025457683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.6039214160146</v>
+        <v>4.204203435867328</v>
       </c>
       <c r="C19">
-        <v>0.3302364943926221</v>
+        <v>1.034870851425268</v>
       </c>
       <c r="D19">
-        <v>0.03680354535846675</v>
+        <v>0.05217008392025946</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.827730895194009</v>
+        <v>2.342706803865454</v>
       </c>
       <c r="G19">
-        <v>0.7340973741039534</v>
+        <v>0.0007745717430042426</v>
       </c>
       <c r="H19">
-        <v>1.521220185483756</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1454353039238967</v>
       </c>
       <c r="K19">
-        <v>0.6132201405421327</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4595939658363122</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.111334148378802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.141512066797759</v>
+      </c>
+      <c r="N19">
+        <v>0.6828173964889572</v>
+      </c>
+      <c r="O19">
+        <v>1.56352687988624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.71554640468014</v>
+        <v>4.38033478584083</v>
       </c>
       <c r="C20">
-        <v>0.3419885616466019</v>
+        <v>1.078691767168664</v>
       </c>
       <c r="D20">
-        <v>0.03684558361965884</v>
+        <v>0.05348588152446609</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.932069970592551</v>
+        <v>2.416379383089463</v>
       </c>
       <c r="G20">
-        <v>0.762113556843758</v>
+        <v>0.0007716241384459376</v>
       </c>
       <c r="H20">
-        <v>1.574104399070293</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1488388245090491</v>
       </c>
       <c r="K20">
-        <v>0.6392236840142829</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4795232753375984</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.159765638175578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.188059215543703</v>
+      </c>
+      <c r="N20">
+        <v>0.6647070925561422</v>
+      </c>
+      <c r="O20">
+        <v>1.613737058991063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.097189429097796</v>
+        <v>4.981579250345874</v>
       </c>
       <c r="C21">
-        <v>0.3819703206336271</v>
+        <v>1.228231462909662</v>
       </c>
       <c r="D21">
-        <v>0.03707425833642475</v>
+        <v>0.05796369455133998</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.292407549794632</v>
+        <v>2.67319906570043</v>
       </c>
       <c r="G21">
-        <v>0.8588765017092896</v>
+        <v>0.0007618082266310228</v>
       </c>
       <c r="H21">
-        <v>1.757063309596802</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1607354968092878</v>
       </c>
       <c r="K21">
-        <v>0.7280393174862354</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.54831453310954</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.326159940289173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.347145328215262</v>
+      </c>
+      <c r="N21">
+        <v>0.6065930442057521</v>
+      </c>
+      <c r="O21">
+        <v>1.789097014845652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.352359598602504</v>
+        <v>5.382677578050163</v>
       </c>
       <c r="C22">
-        <v>0.4085512073283155</v>
+        <v>1.327967907924005</v>
       </c>
       <c r="D22">
-        <v>0.03729914620059205</v>
+        <v>0.06093779835958202</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.536248547356877</v>
+        <v>2.848842292751556</v>
       </c>
       <c r="G22">
-        <v>0.9243688484388599</v>
+        <v>0.0007554458527520787</v>
       </c>
       <c r="H22">
-        <v>1.881131775309029</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1688932865929686</v>
       </c>
       <c r="K22">
-        <v>0.7873531937669043</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5948603073292063</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.438092918917931</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.453422058439472</v>
+      </c>
+      <c r="N22">
+        <v>0.5708195376491432</v>
+      </c>
+      <c r="O22">
+        <v>1.909303401443623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.215588045297579</v>
+        <v>5.167783320343972</v>
       </c>
       <c r="C23">
-        <v>0.3943177194210534</v>
+        <v>1.274533919276791</v>
       </c>
       <c r="D23">
-        <v>0.03717150204016306</v>
+        <v>0.05934575250692831</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.405270429016667</v>
+        <v>2.75432513648343</v>
       </c>
       <c r="G23">
-        <v>0.889188339605667</v>
+        <v>0.0007588375793313517</v>
       </c>
       <c r="H23">
-        <v>1.814464226956034</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1645016620287834</v>
       </c>
       <c r="K23">
-        <v>0.7555672640774702</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5698574650571402</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.378029876614875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.396469001659781</v>
+      </c>
+      <c r="N23">
+        <v>0.5896989506645127</v>
+      </c>
+      <c r="O23">
+        <v>1.844591353957441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.709393633457864</v>
+        <v>4.3706294923565</v>
       </c>
       <c r="C24">
-        <v>0.3413415173851604</v>
+        <v>1.076277328005062</v>
       </c>
       <c r="D24">
-        <v>0.03684297023398031</v>
+        <v>0.05341342238547497</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.926305912879826</v>
+        <v>2.412300773429678</v>
       </c>
       <c r="G24">
-        <v>0.7605658284573593</v>
+        <v>0.0007717856473108962</v>
       </c>
       <c r="H24">
-        <v>1.571181742309875</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1486502768307787</v>
       </c>
       <c r="K24">
-        <v>0.6377906976657286</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.47842248681917</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.157093263934627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.185493642849536</v>
+      </c>
+      <c r="N24">
+        <v>0.6656917430639808</v>
+      </c>
+      <c r="O24">
+        <v>1.61095621302529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.182933679857513</v>
+        <v>3.538970102379494</v>
       </c>
       <c r="C25">
-        <v>0.2856354084553061</v>
+        <v>0.8692684339061145</v>
       </c>
       <c r="D25">
-        <v>0.03674951642707569</v>
+        <v>0.04718678549006938</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.438937322610244</v>
+        <v>2.071430147363529</v>
       </c>
       <c r="G25">
-        <v>0.6297000932303263</v>
+        <v>0.0007860565681556265</v>
       </c>
       <c r="H25">
-        <v>1.324578130102452</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1329536780989216</v>
       </c>
       <c r="K25">
-        <v>0.5150240181765469</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3852409322506603</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9296817236110684</v>
+        <v>0.9659749619909164</v>
+      </c>
+      <c r="N25">
+        <v>0.7560880135430388</v>
+      </c>
+      <c r="O25">
+        <v>1.37904478668375</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.944252362552334</v>
+        <v>3.008295984799474</v>
       </c>
       <c r="C2">
-        <v>0.721028786412603</v>
+        <v>0.5075982665751155</v>
       </c>
       <c r="D2">
-        <v>0.0427192215770944</v>
+        <v>0.04178068795442869</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.839352194940375</v>
+        <v>1.145790917417926</v>
       </c>
       <c r="G2">
-        <v>0.0007969021757337348</v>
+        <v>0.9358034970081661</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6048997566780656</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5306596141299167</v>
       </c>
       <c r="J2">
-        <v>0.1223681475871956</v>
+        <v>0.05368220716531269</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3571621980793935</v>
       </c>
       <c r="M2">
-        <v>0.8094725592553189</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8289063625608719</v>
+        <v>0.7461923223073761</v>
       </c>
       <c r="O2">
-        <v>1.22178699633622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.549374942621512</v>
+        <v>2.619073247505412</v>
       </c>
       <c r="C3">
-        <v>0.6224490511502552</v>
+        <v>0.4427836743809621</v>
       </c>
       <c r="D3">
-        <v>0.03975153119520058</v>
+        <v>0.03970897178082211</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.691630485612237</v>
+        <v>1.077050173364924</v>
       </c>
       <c r="G3">
-        <v>0.0008044960803413173</v>
+        <v>0.8665089200841152</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5806794083854641</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5180120462607647</v>
       </c>
       <c r="J3">
-        <v>0.1157002560446756</v>
+        <v>0.05515796522196759</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3205198317557034</v>
       </c>
       <c r="M3">
-        <v>0.7058404898199697</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8817415570993248</v>
+        <v>0.7869538114829915</v>
       </c>
       <c r="O3">
-        <v>1.122014606087504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.31012630155459</v>
+        <v>2.381666634248631</v>
       </c>
       <c r="C4">
-        <v>0.5626405970656947</v>
+        <v>0.4031465165109296</v>
       </c>
       <c r="D4">
-        <v>0.037955275154264</v>
+        <v>0.03845770818084304</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.604994310466907</v>
+        <v>1.037174854194177</v>
       </c>
       <c r="G4">
-        <v>0.0008092886440590913</v>
+        <v>0.8261055745637833</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.56702899829655</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5115321012766856</v>
       </c>
       <c r="J4">
-        <v>0.1118264992977061</v>
+        <v>0.05612851282879561</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2983589148949903</v>
       </c>
       <c r="M4">
-        <v>0.6431860413547383</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9157796191570284</v>
+        <v>0.8131754538895777</v>
       </c>
       <c r="O4">
-        <v>1.063639015536253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.213326753998047</v>
+        <v>2.285262052146891</v>
       </c>
       <c r="C5">
-        <v>0.5384211474494123</v>
+        <v>0.387023614789797</v>
       </c>
       <c r="D5">
-        <v>0.03722932279098146</v>
+        <v>0.03795275484035798</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.570623650299282</v>
+        <v>1.021473980637225</v>
       </c>
       <c r="G5">
-        <v>0.000811275618476255</v>
+        <v>0.8101413595657334</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5617556058161171</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5091967442457701</v>
       </c>
       <c r="J5">
-        <v>0.1102993565759789</v>
+        <v>0.05653989825259309</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2894060192682986</v>
       </c>
       <c r="M5">
-        <v>0.617869288404961</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9300351839593581</v>
+        <v>0.8241523525020114</v>
       </c>
       <c r="O5">
-        <v>1.040512231215075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.197292248265057</v>
+        <v>2.269273139213283</v>
       </c>
       <c r="C6">
-        <v>0.5344079888452882</v>
+        <v>0.3843479115237471</v>
       </c>
       <c r="D6">
-        <v>0.03710913035611796</v>
+        <v>0.03786919880612416</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.564970411096553</v>
+        <v>1.018898939629921</v>
       </c>
       <c r="G6">
-        <v>0.0008116076420209532</v>
+        <v>0.807519656796913</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5608969345958315</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5088268907143245</v>
       </c>
       <c r="J6">
-        <v>0.1100487725339363</v>
+        <v>0.0566091584915327</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2879239025303235</v>
       </c>
       <c r="M6">
-        <v>0.6136776402989028</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9324250829671179</v>
+        <v>0.8259924073530627</v>
       </c>
       <c r="O6">
-        <v>1.036710243864022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.308818149704337</v>
+        <v>2.380365181128695</v>
       </c>
       <c r="C7">
-        <v>0.562313381110755</v>
+        <v>0.4029289710746582</v>
       </c>
       <c r="D7">
-        <v>0.03794546086730932</v>
+        <v>0.03845087852485918</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.604527104264861</v>
+        <v>1.036960933472855</v>
       </c>
       <c r="G7">
-        <v>0.0008093153018813164</v>
+        <v>0.8258882984914919</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.566956730970432</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5114993928472913</v>
       </c>
       <c r="J7">
-        <v>0.1118057004429218</v>
+        <v>0.05613399703317867</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2982378667634862</v>
       </c>
       <c r="M7">
-        <v>0.6428437764009232</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.915970337975466</v>
+        <v>0.8133223237507963</v>
       </c>
       <c r="O7">
-        <v>1.063324520907869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.807363564498303</v>
+        <v>2.873729445121057</v>
       </c>
       <c r="C8">
-        <v>0.6868714452431277</v>
+        <v>0.4852105874017525</v>
       </c>
       <c r="D8">
-        <v>0.04169027785783896</v>
+        <v>0.04106187210531331</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.787518740757264</v>
+        <v>1.121581721634428</v>
       </c>
       <c r="G8">
-        <v>0.0007994944161309261</v>
+        <v>0.9114417898309881</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5962841237777639</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5260206892634471</v>
       </c>
       <c r="J8">
-        <v>0.1200208388065462</v>
+        <v>0.05417747858054156</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3444534425197077</v>
       </c>
       <c r="M8">
-        <v>0.7735188100397039</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8467819367820866</v>
+        <v>0.7599935917384997</v>
       </c>
       <c r="O8">
-        <v>1.186746710977602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.815968685424991</v>
+        <v>3.856508074810506</v>
       </c>
       <c r="C9">
-        <v>0.9382454940222829</v>
+        <v>0.6483464434610937</v>
       </c>
       <c r="D9">
-        <v>0.04926414931946255</v>
+        <v>0.04636100117859598</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.182993950374993</v>
+        <v>1.307854130722632</v>
       </c>
       <c r="G9">
-        <v>0.000781201607566007</v>
+        <v>1.098095843775468</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6643453721439414</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5655705381615093</v>
       </c>
       <c r="J9">
-        <v>0.1380756938552068</v>
+        <v>0.05086722127457044</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4381065882831194</v>
       </c>
       <c r="M9">
-        <v>1.039012652783256</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7246046842274367</v>
+        <v>0.6653141522785866</v>
       </c>
       <c r="O9">
-        <v>1.454834044004016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.584432374175606</v>
+        <v>4.592120989617968</v>
       </c>
       <c r="C10">
-        <v>1.129461375344135</v>
+        <v>0.7700827887828723</v>
       </c>
       <c r="D10">
-        <v>0.05500839962580528</v>
+        <v>0.05038554346104718</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.50265411311446</v>
+        <v>1.459859326667598</v>
       </c>
       <c r="G10">
-        <v>0.0007682512264874778</v>
+        <v>1.249566691195469</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7220815234045688</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6026883124463893</v>
       </c>
       <c r="J10">
-        <v>0.1528302779142834</v>
+        <v>0.04877867526739621</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5092823832364815</v>
       </c>
       <c r="M10">
-        <v>1.242030268831996</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6443507984504606</v>
+        <v>0.6024197766675883</v>
       </c>
       <c r="O10">
-        <v>1.672590890352964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.94216823809694</v>
+        <v>4.930758510665271</v>
       </c>
       <c r="C11">
-        <v>1.218430911298356</v>
+        <v>0.826068560088828</v>
       </c>
       <c r="D11">
-        <v>0.05767087773499213</v>
+        <v>0.05225052623469395</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.656122089903818</v>
+        <v>1.532973885092773</v>
       </c>
       <c r="G11">
-        <v>0.0007624409311968427</v>
+        <v>1.322278543351644</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.750344217368081</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6216441293216235</v>
       </c>
       <c r="J11">
-        <v>0.1599431519542804</v>
+        <v>0.0479085542257156</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5423049294344793</v>
       </c>
       <c r="M11">
-        <v>1.336708900765785</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.610233794131787</v>
+        <v>0.5754093420629438</v>
       </c>
       <c r="O11">
-        <v>1.77742144548823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.079013685915299</v>
+        <v>5.059661999967034</v>
       </c>
       <c r="C12">
-        <v>1.252460365102877</v>
+        <v>0.8473742281198895</v>
       </c>
       <c r="D12">
-        <v>0.05868717157557057</v>
+        <v>0.05296218416300746</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.715559026108252</v>
+        <v>1.561292585809113</v>
       </c>
       <c r="G12">
-        <v>0.0007602499948824191</v>
+        <v>1.350423472431572</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7613631387153248</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6291493378971111</v>
       </c>
       <c r="J12">
-        <v>0.162701592838097</v>
+        <v>0.04759105851618095</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5549140223558595</v>
       </c>
       <c r="M12">
-        <v>1.372951727064276</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.597690075885815</v>
+        <v>0.5654256708231138</v>
       </c>
       <c r="O12">
-        <v>1.818067591658078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.049476707176041</v>
+        <v>5.031869004981502</v>
       </c>
       <c r="C13">
-        <v>1.245115531293209</v>
+        <v>0.842780696727317</v>
       </c>
       <c r="D13">
-        <v>0.05846791869002743</v>
+        <v>0.05280866565328068</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.702696594369826</v>
+        <v>1.555164509044175</v>
       </c>
       <c r="G13">
-        <v>0.0007607214789052622</v>
+        <v>1.344333737729301</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7589754500147592</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.6275179163733</v>
       </c>
       <c r="J13">
-        <v>0.162104498889093</v>
+        <v>0.04765889477933172</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5521936008108526</v>
       </c>
       <c r="M13">
-        <v>1.365127874682074</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6003743324748854</v>
+        <v>0.5675647111538495</v>
       </c>
       <c r="O13">
-        <v>1.809269448488195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.953397697052765</v>
+        <v>4.941349509808219</v>
       </c>
       <c r="C14">
-        <v>1.221223418972954</v>
+        <v>0.8278191765067504</v>
       </c>
       <c r="D14">
-        <v>0.05775432105972556</v>
+        <v>0.05230896281082664</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.660984496816525</v>
+        <v>1.5352906475526</v>
       </c>
       <c r="G14">
-        <v>0.0007622605095736405</v>
+        <v>1.32458142553881</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7512442321117874</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6222548555243108</v>
       </c>
       <c r="J14">
-        <v>0.1601687439109725</v>
+        <v>0.04788219014835704</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5433401296136537</v>
       </c>
       <c r="M14">
-        <v>1.339682458022764</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6091940895140908</v>
+        <v>0.5745829901670412</v>
       </c>
       <c r="O14">
-        <v>1.780745671719544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.894732602652368</v>
+        <v>4.885993716414362</v>
       </c>
       <c r="C15">
-        <v>1.206634605773502</v>
+        <v>0.8186690533641467</v>
       </c>
       <c r="D15">
-        <v>0.05731830401897753</v>
+        <v>0.05200360362697865</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.635612001135485</v>
+        <v>1.523201531274324</v>
       </c>
       <c r="G15">
-        <v>0.000763204346841311</v>
+        <v>1.312564044417684</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7465507592518179</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.619074584938204</v>
       </c>
       <c r="J15">
-        <v>0.1589917280276723</v>
+        <v>0.04802054334098926</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5379310488278293</v>
       </c>
       <c r="M15">
-        <v>1.324148978169987</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6146463796885016</v>
+        <v>0.5789141922062129</v>
       </c>
       <c r="O15">
-        <v>1.763401422918108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.561234656587658</v>
+        <v>4.570078555753923</v>
       </c>
       <c r="C16">
-        <v>1.123691340363109</v>
+        <v>0.7664376846801702</v>
       </c>
       <c r="D16">
-        <v>0.05483547416384482</v>
+        <v>0.05026439307299313</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.492800227496289</v>
+        <v>1.455166060891102</v>
       </c>
       <c r="G16">
-        <v>0.0007686323772492091</v>
+        <v>1.244896669922724</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7202771274997986</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6014936176399033</v>
       </c>
       <c r="J16">
-        <v>0.1523741067936371</v>
+        <v>0.04883719081865401</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5071382086989473</v>
       </c>
       <c r="M16">
-        <v>1.235894194571557</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6466311686060138</v>
+        <v>0.6042183849326186</v>
       </c>
       <c r="O16">
-        <v>1.665865962068267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.358872446415887</v>
+        <v>4.377363805897176</v>
       </c>
       <c r="C17">
-        <v>1.073352432541469</v>
+        <v>0.7345630614453853</v>
       </c>
       <c r="D17">
-        <v>0.05332563786770805</v>
+        <v>0.04920654934650059</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.407362873224926</v>
+        <v>1.414486429698314</v>
       </c>
       <c r="G17">
-        <v>0.0007719814399444374</v>
+        <v>1.204403099741768</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7046907883002689</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5912586545061131</v>
       </c>
       <c r="J17">
-        <v>0.148422024276222</v>
+        <v>0.04935900364118773</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4884206986388051</v>
       </c>
       <c r="M17">
-        <v>1.182385802253492</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6668866079430558</v>
+        <v>0.620161508955686</v>
       </c>
       <c r="O17">
-        <v>1.607589670009759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.243233223556331</v>
+        <v>4.266890144248748</v>
       </c>
       <c r="C18">
-        <v>1.044582053191476</v>
+        <v>0.7162856223911547</v>
       </c>
       <c r="D18">
-        <v>0.05246180357721641</v>
+        <v>0.04860129068151053</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.358968629599886</v>
+        <v>1.391457950217358</v>
       </c>
       <c r="G18">
-        <v>0.0007739155017341347</v>
+        <v>1.181466500632553</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6959121279154203</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.585564782392396</v>
       </c>
       <c r="J18">
-        <v>0.1461861444783992</v>
+        <v>0.04966663141030736</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4777147798137662</v>
       </c>
       <c r="M18">
-        <v>1.151824307967715</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6787599184262234</v>
+        <v>0.6294812863578372</v>
       </c>
       <c r="O18">
-        <v>1.574606025457683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.204203435867328</v>
+        <v>4.229546641774732</v>
       </c>
       <c r="C19">
-        <v>1.034870851425268</v>
+        <v>0.7101063011340329</v>
       </c>
       <c r="D19">
-        <v>0.05217008392025946</v>
+        <v>0.04839689285114446</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.342706803865454</v>
+        <v>1.383722560101788</v>
       </c>
       <c r="G19">
-        <v>0.0007745717430042426</v>
+        <v>1.173759571994509</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6929709583766908</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5836692344377141</v>
       </c>
       <c r="J19">
-        <v>0.1454353039238967</v>
+        <v>0.04977206150902269</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4740998928875513</v>
       </c>
       <c r="M19">
-        <v>1.141512066797759</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6828173964889572</v>
+        <v>0.6326620965187963</v>
       </c>
       <c r="O19">
-        <v>1.56352687988624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.38033478584083</v>
+        <v>4.397839600106863</v>
       </c>
       <c r="C20">
-        <v>1.078691767168664</v>
+        <v>0.7379502505745847</v>
       </c>
       <c r="D20">
-        <v>0.05348588152446609</v>
+        <v>0.04931882544702404</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.416379383089463</v>
+        <v>1.418778190391279</v>
       </c>
       <c r="G20">
-        <v>0.0007716241384459376</v>
+        <v>1.208676609037838</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.706330508356956</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5923280044290777</v>
       </c>
       <c r="J20">
-        <v>0.1488388245090491</v>
+        <v>0.04930267658617637</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.490406930181976</v>
       </c>
       <c r="M20">
-        <v>1.188059215543703</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6647070925561422</v>
+        <v>0.6184487407045545</v>
       </c>
       <c r="O20">
-        <v>1.613737058991063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.981579250345874</v>
+        <v>4.967918342860685</v>
       </c>
       <c r="C21">
-        <v>1.228231462909662</v>
+        <v>0.8322107358762594</v>
       </c>
       <c r="D21">
-        <v>0.05796369455133998</v>
+        <v>0.05245558593134803</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.67319906570043</v>
+        <v>1.541110418078077</v>
       </c>
       <c r="G21">
-        <v>0.0007618082266310228</v>
+        <v>1.330366057070762</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7535062443675713</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6237916213794463</v>
       </c>
       <c r="J21">
-        <v>0.1607354968092878</v>
+        <v>0.04781627301207791</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5459376844969768</v>
       </c>
       <c r="M21">
-        <v>1.347145328215262</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6065930442057521</v>
+        <v>0.5725147919086773</v>
       </c>
       <c r="O21">
-        <v>1.789097014845652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.382677578050163</v>
+        <v>5.344445782955859</v>
       </c>
       <c r="C22">
-        <v>1.327967907924005</v>
+        <v>0.8944373924394426</v>
       </c>
       <c r="D22">
-        <v>0.06093779835958202</v>
+        <v>0.05453756724291026</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.848842292751556</v>
+        <v>1.624776904087398</v>
       </c>
       <c r="G22">
-        <v>0.0007554458527520787</v>
+        <v>1.413489376412173</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7861983529336953</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6462767856849183</v>
       </c>
       <c r="J22">
-        <v>0.1688932865929686</v>
+        <v>0.04691503097076044</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5828435577010396</v>
       </c>
       <c r="M22">
-        <v>1.453422058439472</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5708195376491432</v>
+        <v>0.5439276189613906</v>
       </c>
       <c r="O22">
-        <v>1.909303401443623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.167783320343972</v>
+        <v>5.143091658959747</v>
       </c>
       <c r="C23">
-        <v>1.274533919276791</v>
+        <v>0.861162610064639</v>
       </c>
       <c r="D23">
-        <v>0.05934575250692831</v>
+        <v>0.05342326888145976</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.75432513648343</v>
+        <v>1.579760786198747</v>
       </c>
       <c r="G23">
-        <v>0.0007588375793313517</v>
+        <v>1.368773806678632</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7685694274973969</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6340897943228185</v>
       </c>
       <c r="J23">
-        <v>0.1645016620287834</v>
+        <v>0.04738944058219552</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5630859937477766</v>
       </c>
       <c r="M23">
-        <v>1.396469001659781</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5896989506645127</v>
+        <v>0.5590488746366695</v>
       </c>
       <c r="O23">
-        <v>1.844591353957441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.3706294923565</v>
+        <v>4.388581501830743</v>
       </c>
       <c r="C24">
-        <v>1.076277328005062</v>
+        <v>0.7364187550934673</v>
       </c>
       <c r="D24">
-        <v>0.05341342238547497</v>
+        <v>0.04926805639656351</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.412300773429678</v>
+        <v>1.416836772428994</v>
       </c>
       <c r="G24">
-        <v>0.0007717856473108962</v>
+        <v>1.20674348965386</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7055886257816155</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5918439606295607</v>
       </c>
       <c r="J24">
-        <v>0.1486502768307787</v>
+        <v>0.04932811831739059</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4895087843622719</v>
       </c>
       <c r="M24">
-        <v>1.185493642849536</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6656917430639808</v>
+        <v>0.6192226050586918</v>
       </c>
       <c r="O24">
-        <v>1.61095621302529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.538970102379494</v>
+        <v>3.588586419509681</v>
       </c>
       <c r="C25">
-        <v>0.8692684339061145</v>
+        <v>0.6039453004457869</v>
       </c>
       <c r="D25">
-        <v>0.04718678549006938</v>
+        <v>0.04490613389551967</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.071430147363529</v>
+        <v>1.255014728652995</v>
       </c>
       <c r="G25">
-        <v>0.0007860565681556265</v>
+        <v>1.045301624005546</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6446757354670467</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5535568656002212</v>
       </c>
       <c r="J25">
-        <v>0.1329536780989216</v>
+        <v>0.05170414121232447</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4123954832933521</v>
       </c>
       <c r="M25">
-        <v>0.9659749619909164</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7560880135430388</v>
+        <v>0.6898056205466077</v>
       </c>
       <c r="O25">
-        <v>1.37904478668375</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.008295984799474</v>
+        <v>1.715993262238555</v>
       </c>
       <c r="C2">
-        <v>0.5075982665751155</v>
+        <v>0.1559993107592845</v>
       </c>
       <c r="D2">
-        <v>0.04178068795442869</v>
+        <v>0.1085831625462568</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.145790917417926</v>
+        <v>1.899826209119951</v>
       </c>
       <c r="G2">
-        <v>0.9358034970081661</v>
+        <v>1.280560895383985</v>
       </c>
       <c r="H2">
-        <v>0.6048997566780656</v>
+        <v>1.201362203969296</v>
       </c>
       <c r="I2">
-        <v>0.5306596141299167</v>
+        <v>1.088450046307784</v>
       </c>
       <c r="J2">
-        <v>0.05368220716531269</v>
+        <v>0.1550793913403208</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3571621980793935</v>
+        <v>0.4332628079233842</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7461923223073761</v>
+        <v>1.462311521678892</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.619073247505412</v>
+        <v>1.611428143844762</v>
       </c>
       <c r="C3">
-        <v>0.4427836743809621</v>
+        <v>0.1363617349252024</v>
       </c>
       <c r="D3">
-        <v>0.03970897178082211</v>
+        <v>0.1083094924820962</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.077050173364924</v>
+        <v>1.897486873322478</v>
       </c>
       <c r="G3">
-        <v>0.8665089200841152</v>
+        <v>1.274352606944674</v>
       </c>
       <c r="H3">
-        <v>0.5806794083854641</v>
+        <v>1.204307485961664</v>
       </c>
       <c r="I3">
-        <v>0.5180120462607647</v>
+        <v>1.094421106830453</v>
       </c>
       <c r="J3">
-        <v>0.05515796522196759</v>
+        <v>0.1562286021713</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3205198317557034</v>
+        <v>0.4256806792747767</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7869538114829915</v>
+        <v>1.479129206295656</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.381666634248631</v>
+        <v>1.547812373119939</v>
       </c>
       <c r="C4">
-        <v>0.4031465165109296</v>
+        <v>0.12426083606681</v>
       </c>
       <c r="D4">
-        <v>0.03845770818084304</v>
+        <v>0.1081597207920346</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.037174854194177</v>
+        <v>1.89714534110206</v>
       </c>
       <c r="G4">
-        <v>0.8261055745637833</v>
+        <v>1.271416668153634</v>
       </c>
       <c r="H4">
-        <v>0.56702899829655</v>
+        <v>1.206735315323556</v>
       </c>
       <c r="I4">
-        <v>0.5115321012766856</v>
+        <v>1.098706173385189</v>
       </c>
       <c r="J4">
-        <v>0.05612851282879561</v>
+        <v>0.1569795039546129</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2983589148949903</v>
+        <v>0.4212082527224652</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8131754538895777</v>
+        <v>1.490022803541706</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.285262052146891</v>
+        <v>1.522037332755701</v>
       </c>
       <c r="C5">
-        <v>0.387023614789797</v>
+        <v>0.1193187522621599</v>
       </c>
       <c r="D5">
-        <v>0.03795275484035798</v>
+        <v>0.1081033038809736</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.021473980637225</v>
+        <v>1.897281242029749</v>
       </c>
       <c r="G5">
-        <v>0.8101413595657334</v>
+        <v>1.270440085964978</v>
       </c>
       <c r="H5">
-        <v>0.5617556058161171</v>
+        <v>1.207880364352974</v>
       </c>
       <c r="I5">
-        <v>0.5091967442457701</v>
+        <v>1.100607806551061</v>
       </c>
       <c r="J5">
-        <v>0.05653989825259309</v>
+        <v>0.1572969020759825</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2894060192682986</v>
+        <v>0.419431850053229</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8241523525020114</v>
+        <v>1.494604712924168</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.269273139213283</v>
+        <v>1.517766434005978</v>
       </c>
       <c r="C6">
-        <v>0.3843479115237471</v>
+        <v>0.1184974674899308</v>
       </c>
       <c r="D6">
-        <v>0.03786919880612416</v>
+        <v>0.1080942154144822</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.018898939629921</v>
+        <v>1.897320415796074</v>
       </c>
       <c r="G6">
-        <v>0.807519656796913</v>
+        <v>1.270291190180757</v>
       </c>
       <c r="H6">
-        <v>0.5608969345958315</v>
+        <v>1.208079900156875</v>
       </c>
       <c r="I6">
-        <v>0.5088268907143245</v>
+        <v>1.100932954122882</v>
       </c>
       <c r="J6">
-        <v>0.0566091584915327</v>
+        <v>0.1573502946831358</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2879239025303235</v>
+        <v>0.4191396705770103</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8259924073530627</v>
+        <v>1.495374152661533</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.380365181128695</v>
+        <v>1.547464157500769</v>
       </c>
       <c r="C7">
-        <v>0.4029289710746582</v>
+        <v>0.1241942293616205</v>
       </c>
       <c r="D7">
-        <v>0.03845087852485918</v>
+        <v>0.108158941210295</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.036960933472855</v>
+        <v>1.897146060432476</v>
       </c>
       <c r="G7">
-        <v>0.8258882984914919</v>
+        <v>1.271402608092899</v>
       </c>
       <c r="H7">
-        <v>0.566956730970432</v>
+        <v>1.20675012757188</v>
       </c>
       <c r="I7">
-        <v>0.5114993928472913</v>
+        <v>1.098731190360603</v>
       </c>
       <c r="J7">
-        <v>0.05613399703317867</v>
+        <v>0.1569837383228396</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2982378667634862</v>
+        <v>0.4211841085209471</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8133223237507963</v>
+        <v>1.490084019089949</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.873729445121057</v>
+        <v>1.679817890517427</v>
       </c>
       <c r="C8">
-        <v>0.4852105874017525</v>
+        <v>0.1492372840313578</v>
       </c>
       <c r="D8">
-        <v>0.04106187210531331</v>
+        <v>0.1084850247693048</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.121581721634428</v>
+        <v>1.898792231587919</v>
       </c>
       <c r="G8">
-        <v>0.9114417898309881</v>
+        <v>1.278238201088342</v>
       </c>
       <c r="H8">
-        <v>0.5962841237777639</v>
+        <v>1.202249134077462</v>
       </c>
       <c r="I8">
-        <v>0.5260206892634471</v>
+        <v>1.090380328983436</v>
       </c>
       <c r="J8">
-        <v>0.05417747858054156</v>
+        <v>0.1554662489510417</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3444534425197077</v>
+        <v>0.4306105719666533</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7599935917384997</v>
+        <v>1.467992472116475</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.856508074810506</v>
+        <v>1.943990447234398</v>
       </c>
       <c r="C9">
-        <v>0.6483464434610937</v>
+        <v>0.1980037218772281</v>
       </c>
       <c r="D9">
-        <v>0.04636100117859598</v>
+        <v>0.1092684120551297</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.307854130722632</v>
+        <v>1.910720507070835</v>
       </c>
       <c r="G9">
-        <v>1.098095843775468</v>
+        <v>1.298615559723487</v>
       </c>
       <c r="H9">
-        <v>0.6643453721439414</v>
+        <v>1.198341752959138</v>
       </c>
       <c r="I9">
-        <v>0.5655705381615093</v>
+        <v>1.078922766347084</v>
       </c>
       <c r="J9">
-        <v>0.05086722127457044</v>
+        <v>0.1528491416814308</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4381065882831194</v>
+        <v>0.4505441267586434</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6653141522785866</v>
+        <v>1.429173905298999</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.592120989617968</v>
+        <v>2.140873084108989</v>
       </c>
       <c r="C10">
-        <v>0.7700827887828723</v>
+        <v>0.233628293650554</v>
       </c>
       <c r="D10">
-        <v>0.05038554346104718</v>
+        <v>0.1099305341553958</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.459859326667598</v>
+        <v>1.924810570993145</v>
       </c>
       <c r="G10">
-        <v>1.249566691195469</v>
+        <v>1.317872398671511</v>
       </c>
       <c r="H10">
-        <v>0.7220815234045688</v>
+        <v>1.198477470917794</v>
       </c>
       <c r="I10">
-        <v>0.6026883124463893</v>
+        <v>1.073516088255431</v>
       </c>
       <c r="J10">
-        <v>0.04877867526739621</v>
+        <v>0.1511441597795251</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5092823832364815</v>
+        <v>0.466068966495925</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6024197766675883</v>
+        <v>1.403398749473769</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.930758510665271</v>
+        <v>2.231043002134584</v>
       </c>
       <c r="C11">
-        <v>0.826068560088828</v>
+        <v>0.2497917851735281</v>
       </c>
       <c r="D11">
-        <v>0.05225052623469395</v>
+        <v>0.1102503082797455</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.532973885092773</v>
+        <v>1.932382257568406</v>
       </c>
       <c r="G11">
-        <v>1.322278543351644</v>
+        <v>1.327571184001215</v>
       </c>
       <c r="H11">
-        <v>0.750344217368081</v>
+        <v>1.199193851426685</v>
       </c>
       <c r="I11">
-        <v>0.6216441293216235</v>
+        <v>1.0717131593102</v>
       </c>
       <c r="J11">
-        <v>0.0479085542257156</v>
+        <v>0.1504156329559603</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5423049294344793</v>
+        <v>0.4733220857560383</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5754093420629438</v>
+        <v>1.392269010674802</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.059661999967034</v>
+        <v>2.265274486275587</v>
       </c>
       <c r="C12">
-        <v>0.8473742281198895</v>
+        <v>0.255906420568607</v>
       </c>
       <c r="D12">
-        <v>0.05296218416300746</v>
+        <v>0.1103740471244947</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.561292585809113</v>
+        <v>1.935416907205862</v>
       </c>
       <c r="G12">
-        <v>1.350423472431572</v>
+        <v>1.331379412021164</v>
       </c>
       <c r="H12">
-        <v>0.7613631387153248</v>
+        <v>1.199559386188184</v>
       </c>
       <c r="I12">
-        <v>0.6291493378971111</v>
+        <v>1.071125076760481</v>
       </c>
       <c r="J12">
-        <v>0.04759105851618095</v>
+        <v>0.1501465157177986</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5549140223558595</v>
+        <v>0.4760960009393926</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5654256708231138</v>
+        <v>1.388140145959753</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.031869004981502</v>
+        <v>2.257898313610724</v>
       </c>
       <c r="C13">
-        <v>0.842780696727317</v>
+        <v>0.2545897976807794</v>
       </c>
       <c r="D13">
-        <v>0.05280866565328068</v>
+        <v>0.1103472803775176</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.555164509044175</v>
+        <v>1.934755890168091</v>
       </c>
       <c r="G13">
-        <v>1.344333737729301</v>
+        <v>1.330553206942568</v>
       </c>
       <c r="H13">
-        <v>0.7589754500147592</v>
+        <v>1.199476467690658</v>
       </c>
       <c r="I13">
-        <v>0.6275179163733</v>
+        <v>1.07124751770737</v>
       </c>
       <c r="J13">
-        <v>0.04765889477933172</v>
+        <v>0.150204174427861</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5521936008108526</v>
+        <v>0.4754973756605949</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5675647111538495</v>
+        <v>1.389025556640288</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.941349509808219</v>
+        <v>2.233857528318879</v>
       </c>
       <c r="C14">
-        <v>0.8278191765067504</v>
+        <v>0.2502949629755733</v>
       </c>
       <c r="D14">
-        <v>0.05230896281082664</v>
+        <v>0.1102604354242516</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.5352906475526</v>
+        <v>1.932628562931427</v>
       </c>
       <c r="G14">
-        <v>1.32458142553881</v>
+        <v>1.327881770450205</v>
       </c>
       <c r="H14">
-        <v>0.7512442321117874</v>
+        <v>1.199222034443864</v>
       </c>
       <c r="I14">
-        <v>0.6222548555243108</v>
+        <v>1.071662879205526</v>
       </c>
       <c r="J14">
-        <v>0.04788219014835704</v>
+        <v>0.150393357092188</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5433401296136537</v>
+        <v>0.4735497506470381</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5745829901670412</v>
+        <v>1.391927607867991</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.885993716414362</v>
+        <v>2.219143029700604</v>
       </c>
       <c r="C15">
-        <v>0.8186690533641467</v>
+        <v>0.2476634533449271</v>
       </c>
       <c r="D15">
-        <v>0.05200360362697865</v>
+        <v>0.1102075844578465</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.523201531274324</v>
+        <v>1.931347325527796</v>
       </c>
       <c r="G15">
-        <v>1.312564044417684</v>
+        <v>1.326263101054849</v>
       </c>
       <c r="H15">
-        <v>0.7465507592518179</v>
+        <v>1.199078465384844</v>
       </c>
       <c r="I15">
-        <v>0.619074584938204</v>
+        <v>1.071929632865547</v>
       </c>
       <c r="J15">
-        <v>0.04802054334098926</v>
+        <v>0.1505101170105156</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5379310488278293</v>
+        <v>0.4723603279601747</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5789141922062129</v>
+        <v>1.39371636490894</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.570078555753923</v>
+        <v>2.134992380286747</v>
       </c>
       <c r="C16">
-        <v>0.7664376846801702</v>
+        <v>0.2325711163469748</v>
       </c>
       <c r="D16">
-        <v>0.05026439307299313</v>
+        <v>0.10991000787876</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.455166060891102</v>
+        <v>1.924339153698853</v>
       </c>
       <c r="G16">
-        <v>1.244896669922724</v>
+        <v>1.31725749448654</v>
       </c>
       <c r="H16">
-        <v>0.7202771274997986</v>
+        <v>1.198443837069732</v>
       </c>
       <c r="I16">
-        <v>0.6014936176399033</v>
+        <v>1.073647145897837</v>
       </c>
       <c r="J16">
-        <v>0.04883719081865401</v>
+        <v>0.151192717217743</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5071382086989473</v>
+        <v>0.4655987870922331</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6042183849326186</v>
+        <v>1.404138095007635</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.377363805897176</v>
+        <v>2.083523301268428</v>
       </c>
       <c r="C17">
-        <v>0.7345630614453853</v>
+        <v>0.2233015890974741</v>
       </c>
       <c r="D17">
-        <v>0.04920654934650059</v>
+        <v>0.1097321942823228</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.414486429698314</v>
+        <v>1.920337718596485</v>
       </c>
       <c r="G17">
-        <v>1.204403099741768</v>
+        <v>1.31197365076207</v>
       </c>
       <c r="H17">
-        <v>0.7046907883002689</v>
+        <v>1.198222267565399</v>
       </c>
       <c r="I17">
-        <v>0.5912586545061131</v>
+        <v>1.074869117484553</v>
       </c>
       <c r="J17">
-        <v>0.04935900364118773</v>
+        <v>0.1516235211941499</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4884206986388051</v>
+        <v>0.4614995819224674</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.620161508955686</v>
+        <v>1.410684076916642</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.266890144248748</v>
+        <v>2.053976854721952</v>
       </c>
       <c r="C18">
-        <v>0.7162856223911547</v>
+        <v>0.2179660228822513</v>
       </c>
       <c r="D18">
-        <v>0.04860129068151053</v>
+        <v>0.1096316700152045</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.391457950217358</v>
+        <v>1.9181455571388</v>
       </c>
       <c r="G18">
-        <v>1.181466500632553</v>
+        <v>1.309022852385056</v>
       </c>
       <c r="H18">
-        <v>0.6959121279154203</v>
+        <v>1.198156437279607</v>
       </c>
       <c r="I18">
-        <v>0.585564782392396</v>
+        <v>1.075633751287086</v>
       </c>
       <c r="J18">
-        <v>0.04966663141030736</v>
+        <v>0.1518757400218007</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4777147798137662</v>
+        <v>0.459159792826128</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6294812863578372</v>
+        <v>1.414505198789612</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.229546641774732</v>
+        <v>2.0439827974281</v>
       </c>
       <c r="C19">
-        <v>0.7101063011340329</v>
+        <v>0.2161588097611116</v>
       </c>
       <c r="D19">
-        <v>0.04839689285114446</v>
+        <v>0.1095979353993144</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.383722560101788</v>
+        <v>1.917422101754923</v>
       </c>
       <c r="G19">
-        <v>1.173759571994509</v>
+        <v>1.308038917601095</v>
       </c>
       <c r="H19">
-        <v>0.6929709583766908</v>
+        <v>1.198144726337034</v>
       </c>
       <c r="I19">
-        <v>0.5836692344377141</v>
+        <v>1.075903248346343</v>
       </c>
       <c r="J19">
-        <v>0.04977206150902269</v>
+        <v>0.1519618984422682</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4740998928875513</v>
+        <v>0.4583706696489998</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6326620965187963</v>
+        <v>1.41580858827572</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.397839600106863</v>
+        <v>2.088996360632393</v>
       </c>
       <c r="C20">
-        <v>0.7379502505745847</v>
+        <v>0.2242887582701485</v>
       </c>
       <c r="D20">
-        <v>0.04931882544702404</v>
+        <v>0.1097509419556744</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.418778190391279</v>
+        <v>1.920752357751311</v>
       </c>
       <c r="G20">
-        <v>1.208676609037838</v>
+        <v>1.312526979507965</v>
       </c>
       <c r="H20">
-        <v>0.706330508356956</v>
+        <v>1.198239476677287</v>
       </c>
       <c r="I20">
-        <v>0.5923280044290777</v>
+        <v>1.074732640026326</v>
       </c>
       <c r="J20">
-        <v>0.04930267658617637</v>
+        <v>0.1515772027738205</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.490406930181976</v>
+        <v>0.4619340908385112</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6184487407045545</v>
+        <v>1.409981444737998</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.967918342860685</v>
+        <v>2.240916562657048</v>
       </c>
       <c r="C21">
-        <v>0.8322107358762594</v>
+        <v>0.2515566267014151</v>
       </c>
       <c r="D21">
-        <v>0.05245558593134803</v>
+        <v>0.1102858722284452</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.541110418078077</v>
+        <v>1.933248864348755</v>
       </c>
       <c r="G21">
-        <v>1.330366057070762</v>
+        <v>1.328662754310159</v>
       </c>
       <c r="H21">
-        <v>0.7535062443675713</v>
+        <v>1.19929420857838</v>
       </c>
       <c r="I21">
-        <v>0.6237916213794463</v>
+        <v>1.071538306918463</v>
       </c>
       <c r="J21">
-        <v>0.04781627301207791</v>
+        <v>0.1503376061684527</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5459376844969768</v>
+        <v>0.4741210749128157</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5725147919086773</v>
+        <v>1.391072877737347</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.344445782955859</v>
+        <v>2.340706465011806</v>
       </c>
       <c r="C22">
-        <v>0.8944373924394426</v>
+        <v>0.2693420159546633</v>
       </c>
       <c r="D22">
-        <v>0.05453756724291026</v>
+        <v>0.1106509000963243</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.624776904087398</v>
+        <v>1.942392032531501</v>
       </c>
       <c r="G22">
-        <v>1.413489376412173</v>
+        <v>1.339998504856538</v>
       </c>
       <c r="H22">
-        <v>0.7861983529336953</v>
+        <v>1.200532996193061</v>
       </c>
       <c r="I22">
-        <v>0.6462767856849183</v>
+        <v>1.070002411595262</v>
       </c>
       <c r="J22">
-        <v>0.04691503097076044</v>
+        <v>0.1495668565216484</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5828435577010396</v>
+        <v>0.4822451393847444</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5439276189613906</v>
+        <v>1.37921475866445</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.143091658959747</v>
+        <v>2.2874012427244</v>
       </c>
       <c r="C23">
-        <v>0.861162610064639</v>
+        <v>0.2598529036425248</v>
       </c>
       <c r="D23">
-        <v>0.05342326888145976</v>
+        <v>0.1104546745378485</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.579760786198747</v>
+        <v>1.937422744435963</v>
       </c>
       <c r="G23">
-        <v>1.368773806678632</v>
+        <v>1.333875936814536</v>
       </c>
       <c r="H23">
-        <v>0.7685694274973969</v>
+        <v>1.199821516063366</v>
       </c>
       <c r="I23">
-        <v>0.6340897943228185</v>
+        <v>1.07077158300531</v>
       </c>
       <c r="J23">
-        <v>0.04738944058219552</v>
+        <v>0.1499746183266488</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5630859937477766</v>
+        <v>0.4778946487373332</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5590488746366695</v>
+        <v>1.385497903373828</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.388581501830743</v>
+        <v>2.08652185392657</v>
       </c>
       <c r="C24">
-        <v>0.7364187550934673</v>
+        <v>0.2238424789972555</v>
       </c>
       <c r="D24">
-        <v>0.04926805639656351</v>
+        <v>0.1097424608267232</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.416836772428994</v>
+        <v>1.920564562003563</v>
       </c>
       <c r="G24">
-        <v>1.20674348965386</v>
+        <v>1.312276548760281</v>
       </c>
       <c r="H24">
-        <v>0.7055886257816155</v>
+        <v>1.198231504703585</v>
       </c>
       <c r="I24">
-        <v>0.5918439606295607</v>
+        <v>1.074794148038357</v>
       </c>
       <c r="J24">
-        <v>0.04932811831739059</v>
+        <v>0.1515981291771826</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4895087843622719</v>
+        <v>0.4617375967130783</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6192226050586918</v>
+        <v>1.410298924856384</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.588586419509681</v>
+        <v>1.872032095094994</v>
       </c>
       <c r="C25">
-        <v>0.6039453004457869</v>
+        <v>0.1848473144289358</v>
       </c>
       <c r="D25">
-        <v>0.04490613389551967</v>
+        <v>0.1090411983863433</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.255014728652995</v>
+        <v>1.906559866734554</v>
       </c>
       <c r="G25">
-        <v>1.045301624005546</v>
+        <v>1.292352872175528</v>
       </c>
       <c r="H25">
-        <v>0.6446757354670467</v>
+        <v>1.198871398348487</v>
       </c>
       <c r="I25">
-        <v>0.5535568656002212</v>
+        <v>1.081494472898569</v>
       </c>
       <c r="J25">
-        <v>0.05170414121232447</v>
+        <v>0.1535188279913378</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4123954832933521</v>
+        <v>0.4449968635679511</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6898056205466077</v>
+        <v>1.439193337300651</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.715993262238555</v>
+        <v>3.008295984799531</v>
       </c>
       <c r="C2">
-        <v>0.1559993107592845</v>
+        <v>0.5075982665751155</v>
       </c>
       <c r="D2">
-        <v>0.1085831625462568</v>
+        <v>0.04178068795448908</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.899826209119951</v>
+        <v>1.145790917417912</v>
       </c>
       <c r="G2">
-        <v>1.280560895383985</v>
+        <v>0.9358034970081093</v>
       </c>
       <c r="H2">
-        <v>1.201362203969296</v>
+        <v>0.6048997566780372</v>
       </c>
       <c r="I2">
-        <v>1.088450046307784</v>
+        <v>0.5306596141299096</v>
       </c>
       <c r="J2">
-        <v>0.1550793913403208</v>
+        <v>0.05368220716533401</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4332628079233842</v>
+        <v>0.3571621980793935</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.462311521678892</v>
+        <v>0.7461923223073583</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.611428143844762</v>
+        <v>2.619073247505412</v>
       </c>
       <c r="C3">
-        <v>0.1363617349252024</v>
+        <v>0.4427836743807916</v>
       </c>
       <c r="D3">
-        <v>0.1083094924820962</v>
+        <v>0.03970897178088606</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.897486873322478</v>
+        <v>1.077050173364924</v>
       </c>
       <c r="G3">
-        <v>1.274352606944674</v>
+        <v>0.866508920084101</v>
       </c>
       <c r="H3">
-        <v>1.204307485961664</v>
+        <v>0.5806794083854498</v>
       </c>
       <c r="I3">
-        <v>1.094421106830453</v>
+        <v>0.5180120462607647</v>
       </c>
       <c r="J3">
-        <v>0.1562286021713</v>
+        <v>0.05515796522207239</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4256806792747767</v>
+        <v>0.3205198317556892</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.479129206295656</v>
+        <v>0.7869538114830412</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.547812373119939</v>
+        <v>2.381666634248461</v>
       </c>
       <c r="C4">
-        <v>0.12426083606681</v>
+        <v>0.4031465165105885</v>
       </c>
       <c r="D4">
-        <v>0.1081597207920346</v>
+        <v>0.03845770818071514</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.89714534110206</v>
+        <v>1.037174854194205</v>
       </c>
       <c r="G4">
-        <v>1.271416668153634</v>
+        <v>0.8261055745637407</v>
       </c>
       <c r="H4">
-        <v>1.206735315323556</v>
+        <v>0.5670289982965642</v>
       </c>
       <c r="I4">
-        <v>1.098706173385189</v>
+        <v>0.5115321012766927</v>
       </c>
       <c r="J4">
-        <v>0.1569795039546129</v>
+        <v>0.05612851282871745</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4212082527224652</v>
+        <v>0.2983589148947772</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.490022803541706</v>
+        <v>0.8131754538896381</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.522037332755701</v>
+        <v>2.285262052146777</v>
       </c>
       <c r="C5">
-        <v>0.1193187522621599</v>
+        <v>0.3870236147896833</v>
       </c>
       <c r="D5">
-        <v>0.1081033038809736</v>
+        <v>0.03795275484046812</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.897281242029749</v>
+        <v>1.021473980637239</v>
       </c>
       <c r="G5">
-        <v>1.270440085964978</v>
+        <v>0.8101413595657618</v>
       </c>
       <c r="H5">
-        <v>1.207880364352974</v>
+        <v>0.5617556058161171</v>
       </c>
       <c r="I5">
-        <v>1.100607806551061</v>
+        <v>0.5091967442457488</v>
       </c>
       <c r="J5">
-        <v>0.1572969020759825</v>
+        <v>0.05653989825254868</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.419431850053229</v>
+        <v>0.2894060192682701</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.494604712924168</v>
+        <v>0.82415235250199</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.517766434005978</v>
+        <v>2.269273139213169</v>
       </c>
       <c r="C6">
-        <v>0.1184974674899308</v>
+        <v>0.3843479115236335</v>
       </c>
       <c r="D6">
-        <v>0.1080942154144822</v>
+        <v>0.03786919880599982</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.897320415796074</v>
+        <v>1.018898939629892</v>
       </c>
       <c r="G6">
-        <v>1.270291190180757</v>
+        <v>0.8075196567968845</v>
       </c>
       <c r="H6">
-        <v>1.208079900156875</v>
+        <v>0.5608969345958172</v>
       </c>
       <c r="I6">
-        <v>1.100932954122882</v>
+        <v>0.5088268907143316</v>
       </c>
       <c r="J6">
-        <v>0.1573502946831358</v>
+        <v>0.05660915849158066</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4191396705770103</v>
+        <v>0.2879239025302667</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.495374152661533</v>
+        <v>0.825992407353052</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.547464157500769</v>
+        <v>2.380365181128809</v>
       </c>
       <c r="C7">
-        <v>0.1241942293616205</v>
+        <v>0.4029289710747719</v>
       </c>
       <c r="D7">
-        <v>0.108158941210295</v>
+        <v>0.03845087852485563</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.897146060432476</v>
+        <v>1.036960933472841</v>
       </c>
       <c r="G7">
-        <v>1.271402608092899</v>
+        <v>0.8258882984915772</v>
       </c>
       <c r="H7">
-        <v>1.20675012757188</v>
+        <v>0.566956730970432</v>
       </c>
       <c r="I7">
-        <v>1.098731190360603</v>
+        <v>0.5114993928472913</v>
       </c>
       <c r="J7">
-        <v>0.1569837383228396</v>
+        <v>0.05613399703327993</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4211841085209471</v>
+        <v>0.298237866763543</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.490084019089949</v>
+        <v>0.8133223237507927</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.679817890517427</v>
+        <v>2.873729445121</v>
       </c>
       <c r="C8">
-        <v>0.1492372840313578</v>
+        <v>0.4852105874017809</v>
       </c>
       <c r="D8">
-        <v>0.1084850247693048</v>
+        <v>0.04106187210524226</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.898792231587919</v>
+        <v>1.121581721634428</v>
       </c>
       <c r="G8">
-        <v>1.278238201088342</v>
+        <v>0.911441789831045</v>
       </c>
       <c r="H8">
-        <v>1.202249134077462</v>
+        <v>0.5962841237776502</v>
       </c>
       <c r="I8">
-        <v>1.090380328983436</v>
+        <v>0.5260206892634329</v>
       </c>
       <c r="J8">
-        <v>0.1554662489510417</v>
+        <v>0.05417747858051492</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4306105719666533</v>
+        <v>0.3444534425195798</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.467992472116475</v>
+        <v>0.7599935917385032</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.943990447234398</v>
+        <v>3.856508074810506</v>
       </c>
       <c r="C9">
-        <v>0.1980037218772281</v>
+        <v>0.6483464434614632</v>
       </c>
       <c r="D9">
-        <v>0.1092684120551297</v>
+        <v>0.04636100117858533</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.910720507070835</v>
+        <v>1.307854130722646</v>
       </c>
       <c r="G9">
-        <v>1.298615559723487</v>
+        <v>1.098095843775553</v>
       </c>
       <c r="H9">
-        <v>1.198341752959138</v>
+        <v>0.6643453721439272</v>
       </c>
       <c r="I9">
-        <v>1.078922766347084</v>
+        <v>0.5655705381615164</v>
       </c>
       <c r="J9">
-        <v>0.1528491416814308</v>
+        <v>0.05086722127465215</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4505441267586434</v>
+        <v>0.4381065882831479</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.429173905298999</v>
+        <v>0.6653141522785226</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.140873084108989</v>
+        <v>4.592120989617911</v>
       </c>
       <c r="C10">
-        <v>0.233628293650554</v>
+        <v>0.7700827887830144</v>
       </c>
       <c r="D10">
-        <v>0.1099305341553958</v>
+        <v>0.05038554346104007</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.924810570993145</v>
+        <v>1.459859326667598</v>
       </c>
       <c r="G10">
-        <v>1.317872398671511</v>
+        <v>1.249566691195497</v>
       </c>
       <c r="H10">
-        <v>1.198477470917794</v>
+        <v>0.7220815234045688</v>
       </c>
       <c r="I10">
-        <v>1.073516088255431</v>
+        <v>0.6026883124463893</v>
       </c>
       <c r="J10">
-        <v>0.1511441597795251</v>
+        <v>0.0487786752673891</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.466068966495925</v>
+        <v>0.5092823832363962</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.403398749473769</v>
+        <v>0.602419776667638</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.231043002134584</v>
+        <v>4.930758510665214</v>
       </c>
       <c r="C11">
-        <v>0.2497917851735281</v>
+        <v>0.8260685600888564</v>
       </c>
       <c r="D11">
-        <v>0.1102503082797455</v>
+        <v>0.05225052623480764</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.932382257568406</v>
+        <v>1.532973885092773</v>
       </c>
       <c r="G11">
-        <v>1.327571184001215</v>
+        <v>1.32227854335153</v>
       </c>
       <c r="H11">
-        <v>1.199193851426685</v>
+        <v>0.750344217368081</v>
       </c>
       <c r="I11">
-        <v>1.0717131593102</v>
+        <v>0.6216441293216377</v>
       </c>
       <c r="J11">
-        <v>0.1504156329559603</v>
+        <v>0.04790855422569429</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4733220857560383</v>
+        <v>0.5423049294344935</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.392269010674802</v>
+        <v>0.5754093420629331</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.265274486275587</v>
+        <v>5.059661999967204</v>
       </c>
       <c r="C12">
-        <v>0.255906420568607</v>
+        <v>0.8473742281199179</v>
       </c>
       <c r="D12">
-        <v>0.1103740471244947</v>
+        <v>0.05296218416299325</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.935416907205862</v>
+        <v>1.561292585809099</v>
       </c>
       <c r="G12">
-        <v>1.331379412021164</v>
+        <v>1.350423472431572</v>
       </c>
       <c r="H12">
-        <v>1.199559386188184</v>
+        <v>0.7613631387154385</v>
       </c>
       <c r="I12">
-        <v>1.071125076760481</v>
+        <v>0.6291493378970969</v>
       </c>
       <c r="J12">
-        <v>0.1501465157177986</v>
+        <v>0.04759105851616496</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4760960009393926</v>
+        <v>0.5549140223557743</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.388140145959753</v>
+        <v>0.5654256708230392</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.257898313610724</v>
+        <v>5.031869004981502</v>
       </c>
       <c r="C13">
-        <v>0.2545897976807794</v>
+        <v>0.8427806967272033</v>
       </c>
       <c r="D13">
-        <v>0.1103472803775176</v>
+        <v>0.05280866565335884</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.934755890168091</v>
+        <v>1.555164509044175</v>
       </c>
       <c r="G13">
-        <v>1.330553206942568</v>
+        <v>1.344333737729301</v>
       </c>
       <c r="H13">
-        <v>1.199476467690658</v>
+        <v>0.7589754500147592</v>
       </c>
       <c r="I13">
-        <v>1.07124751770737</v>
+        <v>0.6275179163732858</v>
       </c>
       <c r="J13">
-        <v>0.150204174427861</v>
+        <v>0.04765889477931395</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4754973756605949</v>
+        <v>0.5521936008108526</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.389025556640288</v>
+        <v>0.567564711153846</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.233857528318879</v>
+        <v>4.941349509808276</v>
       </c>
       <c r="C14">
-        <v>0.2502949629755733</v>
+        <v>0.8278191765067788</v>
       </c>
       <c r="D14">
-        <v>0.1102604354242516</v>
+        <v>0.05230896281070585</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.932628562931427</v>
+        <v>1.5352906475526</v>
       </c>
       <c r="G14">
-        <v>1.327881770450205</v>
+        <v>1.324581425538781</v>
       </c>
       <c r="H14">
-        <v>1.199222034443864</v>
+        <v>0.7512442321118158</v>
       </c>
       <c r="I14">
-        <v>1.071662879205526</v>
+        <v>0.6222548555242966</v>
       </c>
       <c r="J14">
-        <v>0.150393357092188</v>
+        <v>0.04788219014834993</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4735497506470381</v>
+        <v>0.5433401296136537</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.391927607867991</v>
+        <v>0.5745829901670909</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.219143029700604</v>
+        <v>4.885993716414305</v>
       </c>
       <c r="C15">
-        <v>0.2476634533449271</v>
+        <v>0.8186690533639194</v>
       </c>
       <c r="D15">
-        <v>0.1102075844578465</v>
+        <v>0.05200360362709944</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.931347325527796</v>
+        <v>1.523201531274339</v>
       </c>
       <c r="G15">
-        <v>1.326263101054849</v>
+        <v>1.312564044417712</v>
       </c>
       <c r="H15">
-        <v>1.199078465384844</v>
+        <v>0.7465507592519316</v>
       </c>
       <c r="I15">
-        <v>1.071929632865547</v>
+        <v>0.619074584938204</v>
       </c>
       <c r="J15">
-        <v>0.1505101170105156</v>
+        <v>0.04802054334109584</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4723603279601747</v>
+        <v>0.5379310488278719</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.39371636490894</v>
+        <v>0.5789141922062093</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.134992380286747</v>
+        <v>4.570078555753923</v>
       </c>
       <c r="C16">
-        <v>0.2325711163469748</v>
+        <v>0.7664376846803123</v>
       </c>
       <c r="D16">
-        <v>0.10991000787876</v>
+        <v>0.05026439307299313</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.924339153698853</v>
+        <v>1.455166060891102</v>
       </c>
       <c r="G16">
-        <v>1.31725749448654</v>
+        <v>1.244896669922724</v>
       </c>
       <c r="H16">
-        <v>1.198443837069732</v>
+        <v>0.7202771274997986</v>
       </c>
       <c r="I16">
-        <v>1.073647145897837</v>
+        <v>0.6014936176399033</v>
       </c>
       <c r="J16">
-        <v>0.151192717217743</v>
+        <v>0.04883719081865578</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4655987870922331</v>
+        <v>0.507138208699061</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.404138095007635</v>
+        <v>0.6042183849326186</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.083523301268428</v>
+        <v>4.377363805897062</v>
       </c>
       <c r="C17">
-        <v>0.2233015890974741</v>
+        <v>0.7345630614452716</v>
       </c>
       <c r="D17">
-        <v>0.1097321942823228</v>
+        <v>0.04920654934651481</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.920337718596485</v>
+        <v>1.414486429698314</v>
       </c>
       <c r="G17">
-        <v>1.31197365076207</v>
+        <v>1.204403099741825</v>
       </c>
       <c r="H17">
-        <v>1.198222267565399</v>
+        <v>0.7046907883002689</v>
       </c>
       <c r="I17">
-        <v>1.074869117484553</v>
+        <v>0.5912586545061203</v>
       </c>
       <c r="J17">
-        <v>0.1516235211941499</v>
+        <v>0.04935900364107049</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4614995819224674</v>
+        <v>0.4884206986387056</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.410684076916642</v>
+        <v>0.6201615089556576</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.053976854721952</v>
+        <v>4.266890144248691</v>
       </c>
       <c r="C18">
-        <v>0.2179660228822513</v>
+        <v>0.7162856223913252</v>
       </c>
       <c r="D18">
-        <v>0.1096316700152045</v>
+        <v>0.04860129068150343</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.9181455571388</v>
+        <v>1.391457950217372</v>
       </c>
       <c r="G18">
-        <v>1.309022852385056</v>
+        <v>1.181466500632581</v>
       </c>
       <c r="H18">
-        <v>1.198156437279607</v>
+        <v>0.6959121279155625</v>
       </c>
       <c r="I18">
-        <v>1.075633751287086</v>
+        <v>0.5855647823924102</v>
       </c>
       <c r="J18">
-        <v>0.1518757400218007</v>
+        <v>0.04966663141035355</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.459159792826128</v>
+        <v>0.4777147798138515</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.414505198789612</v>
+        <v>0.6294812863577839</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.0439827974281</v>
+        <v>4.229546641774732</v>
       </c>
       <c r="C19">
-        <v>0.2161588097611116</v>
+        <v>0.7101063011338624</v>
       </c>
       <c r="D19">
-        <v>0.1095979353993144</v>
+        <v>0.04839689285125104</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.917422101754923</v>
+        <v>1.383722560101788</v>
       </c>
       <c r="G19">
-        <v>1.308038917601095</v>
+        <v>1.173759571994566</v>
       </c>
       <c r="H19">
-        <v>1.198144726337034</v>
+        <v>0.6929709583766908</v>
       </c>
       <c r="I19">
-        <v>1.075903248346343</v>
+        <v>0.583669234437707</v>
       </c>
       <c r="J19">
-        <v>0.1519618984422682</v>
+        <v>0.04977206150902269</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4583706696489998</v>
+        <v>0.4740998928875086</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.41580858827572</v>
+        <v>0.6326620965188638</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.088996360632393</v>
+        <v>4.397839600106749</v>
       </c>
       <c r="C20">
-        <v>0.2242887582701485</v>
+        <v>0.7379502505745847</v>
       </c>
       <c r="D20">
-        <v>0.1097509419556744</v>
+        <v>0.04931882544704536</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.920752357751311</v>
+        <v>1.418778190391279</v>
       </c>
       <c r="G20">
-        <v>1.312526979507965</v>
+        <v>1.208676609037809</v>
       </c>
       <c r="H20">
-        <v>1.198239476677287</v>
+        <v>0.706330508356956</v>
       </c>
       <c r="I20">
-        <v>1.074732640026326</v>
+        <v>0.5923280044290919</v>
       </c>
       <c r="J20">
-        <v>0.1515772027738205</v>
+        <v>0.04930267658618703</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4619340908385112</v>
+        <v>0.4904069301818339</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.409981444737998</v>
+        <v>0.6184487407045722</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.240916562657048</v>
+        <v>4.967918342860685</v>
       </c>
       <c r="C21">
-        <v>0.2515566267014151</v>
+        <v>0.832210735876231</v>
       </c>
       <c r="D21">
-        <v>0.1102858722284452</v>
+        <v>0.0524555859314404</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.933248864348755</v>
+        <v>1.541110418078063</v>
       </c>
       <c r="G21">
-        <v>1.328662754310159</v>
+        <v>1.330366057070819</v>
       </c>
       <c r="H21">
-        <v>1.19929420857838</v>
+        <v>0.753506244367685</v>
       </c>
       <c r="I21">
-        <v>1.071538306918463</v>
+        <v>0.6237916213794605</v>
       </c>
       <c r="J21">
-        <v>0.1503376061684527</v>
+        <v>0.04781627301215785</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4741210749128157</v>
+        <v>0.5459376844970336</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.391072877737347</v>
+        <v>0.5725147919086702</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.340706465011806</v>
+        <v>5.344445782955745</v>
       </c>
       <c r="C22">
-        <v>0.2693420159546633</v>
+        <v>0.8944373924392153</v>
       </c>
       <c r="D22">
-        <v>0.1106509000963243</v>
+        <v>0.05453756724271841</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.942392032531501</v>
+        <v>1.624776904087398</v>
       </c>
       <c r="G22">
-        <v>1.339998504856538</v>
+        <v>1.413489376412087</v>
       </c>
       <c r="H22">
-        <v>1.200532996193061</v>
+        <v>0.7861983529336669</v>
       </c>
       <c r="I22">
-        <v>1.070002411595262</v>
+        <v>0.6462767856849183</v>
       </c>
       <c r="J22">
-        <v>0.1495668565216484</v>
+        <v>0.0469150309707711</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4822451393847444</v>
+        <v>0.5828435577011106</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.37921475866445</v>
+        <v>0.5439276189613906</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.2874012427244</v>
+        <v>5.143091658959747</v>
       </c>
       <c r="C23">
-        <v>0.2598529036425248</v>
+        <v>0.8611626100644401</v>
       </c>
       <c r="D23">
-        <v>0.1104546745378485</v>
+        <v>0.05342326888149529</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.937422744435963</v>
+        <v>1.579760786198747</v>
       </c>
       <c r="G23">
-        <v>1.333875936814536</v>
+        <v>1.368773806678661</v>
       </c>
       <c r="H23">
-        <v>1.199821516063366</v>
+        <v>0.7685694274973969</v>
       </c>
       <c r="I23">
-        <v>1.07077158300531</v>
+        <v>0.6340897943227972</v>
       </c>
       <c r="J23">
-        <v>0.1499746183266488</v>
+        <v>0.0473894405820996</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4778946487373332</v>
+        <v>0.5630859937478334</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.385497903373828</v>
+        <v>0.5590488746366766</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.08652185392657</v>
+        <v>4.388581501830856</v>
       </c>
       <c r="C24">
-        <v>0.2238424789972555</v>
+        <v>0.736418755093581</v>
       </c>
       <c r="D24">
-        <v>0.1097424608267232</v>
+        <v>0.04926805639648535</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.920564562003563</v>
+        <v>1.416836772429008</v>
       </c>
       <c r="G24">
-        <v>1.312276548760281</v>
+        <v>1.20674348965386</v>
       </c>
       <c r="H24">
-        <v>1.198231504703585</v>
+        <v>0.7055886257816155</v>
       </c>
       <c r="I24">
-        <v>1.074794148038357</v>
+        <v>0.5918439606295394</v>
       </c>
       <c r="J24">
-        <v>0.1515981291771826</v>
+        <v>0.04932811831742434</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4617375967130783</v>
+        <v>0.4895087843621582</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.410298924856384</v>
+        <v>0.619222605058745</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.872032095094994</v>
+        <v>3.588586419509795</v>
       </c>
       <c r="C25">
-        <v>0.1848473144289358</v>
+        <v>0.6039453004461279</v>
       </c>
       <c r="D25">
-        <v>0.1090411983863433</v>
+        <v>0.04490613389570441</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.906559866734554</v>
+        <v>1.255014728652981</v>
       </c>
       <c r="G25">
-        <v>1.292352872175528</v>
+        <v>1.045301624005532</v>
       </c>
       <c r="H25">
-        <v>1.198871398348487</v>
+        <v>0.6446757354670183</v>
       </c>
       <c r="I25">
-        <v>1.081494472898569</v>
+        <v>0.5535568656002212</v>
       </c>
       <c r="J25">
-        <v>0.1535188279913378</v>
+        <v>0.05170414121231026</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4449968635679511</v>
+        <v>0.4123954832933663</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.439193337300651</v>
+        <v>0.689805620546533</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.008295984799531</v>
+        <v>1.686344803927938</v>
       </c>
       <c r="C2">
-        <v>0.5075982665751155</v>
+        <v>0.4640981765573429</v>
       </c>
       <c r="D2">
-        <v>0.04178068795448908</v>
+        <v>0.2488800057163587</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.145790917417912</v>
+        <v>0.6285298729837479</v>
       </c>
       <c r="G2">
-        <v>0.9358034970081093</v>
+        <v>0.3147708130542455</v>
       </c>
       <c r="H2">
-        <v>0.6048997566780372</v>
+        <v>6.969260066824745E-07</v>
       </c>
       <c r="I2">
-        <v>0.5306596141299096</v>
+        <v>0.002674128852863333</v>
       </c>
       <c r="J2">
-        <v>0.05368220716533401</v>
+        <v>0.2640432272972504</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2024375483546628</v>
       </c>
       <c r="L2">
-        <v>0.3571621980793935</v>
+        <v>0.2220069170309387</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7461923223073583</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6489717589738433</v>
+      </c>
+      <c r="P2">
+        <v>0.8322010624452716</v>
+      </c>
+      <c r="Q2">
+        <v>1.169505134773459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.619073247505412</v>
+        <v>1.47046552036511</v>
       </c>
       <c r="C3">
-        <v>0.4427836743807916</v>
+        <v>0.4113932235162849</v>
       </c>
       <c r="D3">
-        <v>0.03970897178088606</v>
+        <v>0.2275610085755915</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.077050173364924</v>
+        <v>0.5917726968435346</v>
       </c>
       <c r="G3">
-        <v>0.866508920084101</v>
+        <v>0.2938260412202283</v>
       </c>
       <c r="H3">
-        <v>0.5806794083854498</v>
+        <v>0.0001831807654508744</v>
       </c>
       <c r="I3">
-        <v>0.5180120462607647</v>
+        <v>0.001767464370607819</v>
       </c>
       <c r="J3">
-        <v>0.05515796522207239</v>
+        <v>0.2579983018596153</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2042464583912338</v>
       </c>
       <c r="L3">
-        <v>0.3205198317556892</v>
+        <v>0.2062757337700418</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7869538114830412</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5673638951397777</v>
+      </c>
+      <c r="P3">
+        <v>0.8312201974328701</v>
+      </c>
+      <c r="Q3">
+        <v>1.112181042704563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.381666634248461</v>
+        <v>1.337228664431422</v>
       </c>
       <c r="C4">
-        <v>0.4031465165105885</v>
+        <v>0.3791940352710412</v>
       </c>
       <c r="D4">
-        <v>0.03845770818071514</v>
+        <v>0.2145294193850305</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.037174854194205</v>
+        <v>0.5696150425197999</v>
       </c>
       <c r="G4">
-        <v>0.8261055745637407</v>
+        <v>0.2812583035233658</v>
       </c>
       <c r="H4">
-        <v>0.5670289982965642</v>
+        <v>0.000467900222475448</v>
       </c>
       <c r="I4">
-        <v>0.5115321012766927</v>
+        <v>0.001329906174884155</v>
       </c>
       <c r="J4">
-        <v>0.05612851282871745</v>
+        <v>0.2545044460888022</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2055632336987365</v>
       </c>
       <c r="L4">
-        <v>0.2983589148947772</v>
+        <v>0.1965590470187948</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8131754538896381</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5172259576702203</v>
+      </c>
+      <c r="P4">
+        <v>0.8312702070133327</v>
+      </c>
+      <c r="Q4">
+        <v>1.078052070876325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.285262052146777</v>
+        <v>1.28190620003798</v>
       </c>
       <c r="C5">
-        <v>0.3870236147896833</v>
+        <v>0.3667349495784435</v>
       </c>
       <c r="D5">
-        <v>0.03795275484046812</v>
+        <v>0.2093094470445607</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.021473980637239</v>
+        <v>0.5603289684838799</v>
       </c>
       <c r="G5">
-        <v>0.8101413595657618</v>
+        <v>0.2759039762445639</v>
       </c>
       <c r="H5">
-        <v>0.5617556058161171</v>
+        <v>0.0006258207228266865</v>
       </c>
       <c r="I5">
-        <v>0.5091967442457488</v>
+        <v>0.00123925290605964</v>
       </c>
       <c r="J5">
-        <v>0.05653989825254868</v>
+        <v>0.2529777415911312</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2059402443425089</v>
       </c>
       <c r="L5">
-        <v>0.2894060192682701</v>
+        <v>0.1925640061218701</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.82415235250199</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4968356262170275</v>
+      </c>
+      <c r="P5">
+        <v>0.8317761600034643</v>
+      </c>
+      <c r="Q5">
+        <v>1.06343292356857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.269273139213169</v>
+        <v>1.271663608052961</v>
       </c>
       <c r="C6">
-        <v>0.3843479115236335</v>
+        <v>0.3654357013362812</v>
       </c>
       <c r="D6">
-        <v>0.03786919880599982</v>
+        <v>0.2085381339225449</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.018898939629892</v>
+        <v>0.5583591696981003</v>
       </c>
       <c r="G6">
-        <v>0.8075196567968845</v>
+        <v>0.2746498611460169</v>
       </c>
       <c r="H6">
-        <v>0.5608969345958172</v>
+        <v>0.0006551195187884939</v>
       </c>
       <c r="I6">
-        <v>0.5088268907143316</v>
+        <v>0.001305933378801249</v>
       </c>
       <c r="J6">
-        <v>0.05660915849158066</v>
+        <v>0.2525369523157011</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2057499119497948</v>
       </c>
       <c r="L6">
-        <v>0.2879239025302667</v>
+        <v>0.191875760022775</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.825992407353052</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4935124882379895</v>
+      </c>
+      <c r="P6">
+        <v>0.8322705722062906</v>
+      </c>
+      <c r="Q6">
+        <v>1.059839094050801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.380365181128809</v>
+        <v>1.333617062026462</v>
       </c>
       <c r="C7">
-        <v>0.4029289710747719</v>
+        <v>0.3811270963649065</v>
       </c>
       <c r="D7">
-        <v>0.03845087852485563</v>
+        <v>0.2147180890987812</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.036960933472841</v>
+        <v>0.5683048884450699</v>
       </c>
       <c r="G7">
-        <v>0.8258882984915772</v>
+        <v>0.2801769720873821</v>
       </c>
       <c r="H7">
-        <v>0.566956730970432</v>
+        <v>0.0004712754200533187</v>
       </c>
       <c r="I7">
-        <v>0.5114993928472913</v>
+        <v>0.001532817201353787</v>
       </c>
       <c r="J7">
-        <v>0.05613399703327993</v>
+        <v>0.2539638320975115</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.204869745707601</v>
       </c>
       <c r="L7">
-        <v>0.298237866763543</v>
+        <v>0.1964404450227804</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8133223237507927</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5171242037247339</v>
+      </c>
+      <c r="P7">
+        <v>0.8323840349508203</v>
+      </c>
+      <c r="Q7">
+        <v>1.07462621770344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.873729445121</v>
+        <v>1.608220612696272</v>
       </c>
       <c r="C8">
-        <v>0.4852105874017809</v>
+        <v>0.4486963205844745</v>
       </c>
       <c r="D8">
-        <v>0.04106187210524226</v>
+        <v>0.2418613720607112</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.121581721634428</v>
+        <v>0.6141991133213764</v>
       </c>
       <c r="G8">
-        <v>0.911441789831045</v>
+        <v>0.3061481904307044</v>
       </c>
       <c r="H8">
-        <v>0.5962841237776502</v>
+        <v>2.696269351765146E-05</v>
       </c>
       <c r="I8">
-        <v>0.5260206892634329</v>
+        <v>0.002580494073818329</v>
       </c>
       <c r="J8">
-        <v>0.05417747858051492</v>
+        <v>0.2612261282322166</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2020978971779428</v>
       </c>
       <c r="L8">
-        <v>0.3444534425195798</v>
+        <v>0.2165099741638272</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7599935917385032</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6210674524617659</v>
+      </c>
+      <c r="P8">
+        <v>0.8332465560854772</v>
+      </c>
+      <c r="Q8">
+        <v>1.145236665391792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.856508074810506</v>
+        <v>2.146522326277761</v>
       </c>
       <c r="C9">
-        <v>0.6483464434614632</v>
+        <v>0.5788820535728121</v>
       </c>
       <c r="D9">
-        <v>0.04636100117858533</v>
+        <v>0.295155898912796</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.307854130722646</v>
+        <v>0.709854447571864</v>
       </c>
       <c r="G9">
-        <v>1.098095843775553</v>
+        <v>0.3614286631111554</v>
       </c>
       <c r="H9">
-        <v>0.6643453721439272</v>
+        <v>0.0006208836317838085</v>
       </c>
       <c r="I9">
-        <v>0.5655705381615164</v>
+        <v>0.005355754183840489</v>
       </c>
       <c r="J9">
-        <v>0.05086722127465215</v>
+        <v>0.2782181054216295</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1996257991492207</v>
       </c>
       <c r="L9">
-        <v>0.4381065882831479</v>
+        <v>0.2555867270567234</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6653141522785226</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8244930860217679</v>
+      </c>
+      <c r="P9">
+        <v>0.8382609295138153</v>
+      </c>
+      <c r="Q9">
+        <v>1.298627388343846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.592120989617911</v>
+        <v>2.535769675818926</v>
       </c>
       <c r="C10">
-        <v>0.7700827887830144</v>
+        <v>0.6748280838532708</v>
       </c>
       <c r="D10">
-        <v>0.05038554346104007</v>
+        <v>0.3259784917019175</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.459859326667598</v>
+        <v>0.7705597816597987</v>
       </c>
       <c r="G10">
-        <v>1.249566691195497</v>
+        <v>0.3985595485664248</v>
       </c>
       <c r="H10">
-        <v>0.7220815234045688</v>
+        <v>0.002140184757781327</v>
       </c>
       <c r="I10">
-        <v>0.6026883124463893</v>
+        <v>0.008196693371776753</v>
       </c>
       <c r="J10">
-        <v>0.0487786752673891</v>
+        <v>0.2892873377100216</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1967826973928553</v>
       </c>
       <c r="L10">
-        <v>0.5092823832363962</v>
+        <v>0.2706621138015279</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.602419776667638</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9558398099334582</v>
+      </c>
+      <c r="P10">
+        <v>0.8514218660554036</v>
+      </c>
+      <c r="Q10">
+        <v>1.400936504813274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.930758510665214</v>
+        <v>2.693107375465843</v>
       </c>
       <c r="C11">
-        <v>0.8260685600888564</v>
+        <v>0.7049261435911092</v>
       </c>
       <c r="D11">
-        <v>0.05225052623480764</v>
+        <v>0.2677326047689945</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.532973885092773</v>
+        <v>0.6989046141459028</v>
       </c>
       <c r="G11">
-        <v>1.32227854335153</v>
+        <v>0.3726581503246962</v>
       </c>
       <c r="H11">
-        <v>0.750344217368081</v>
+        <v>0.02050095441163791</v>
       </c>
       <c r="I11">
-        <v>0.6216441293216377</v>
+        <v>0.009574856350208272</v>
       </c>
       <c r="J11">
-        <v>0.04790855422569429</v>
+        <v>0.273042720888526</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1790201190142184</v>
       </c>
       <c r="L11">
-        <v>0.5423049294344935</v>
+        <v>0.1818466215510597</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5754093420629331</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8604647763031323</v>
+      </c>
+      <c r="P11">
+        <v>0.9094417106197454</v>
+      </c>
+      <c r="Q11">
+        <v>1.312168429847588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.059661999967204</v>
+        <v>2.748370132283469</v>
       </c>
       <c r="C12">
-        <v>0.8473742281199179</v>
+        <v>0.706303067594007</v>
       </c>
       <c r="D12">
-        <v>0.05296218416299325</v>
+        <v>0.217585991348912</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.561292585809099</v>
+        <v>0.629829628277939</v>
       </c>
       <c r="G12">
-        <v>1.350423472431572</v>
+        <v>0.3448863251156524</v>
       </c>
       <c r="H12">
-        <v>0.7613631387154385</v>
+        <v>0.05888354812175578</v>
       </c>
       <c r="I12">
-        <v>0.6291493378970969</v>
+        <v>0.009771893254285402</v>
       </c>
       <c r="J12">
-        <v>0.04759105851616496</v>
+        <v>0.2578179310238227</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1660861768653419</v>
       </c>
       <c r="L12">
-        <v>0.5549140223557743</v>
+        <v>0.1325051724337776</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5654256708230392</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7571452391572251</v>
+      </c>
+      <c r="P12">
+        <v>0.9576887061622585</v>
+      </c>
+      <c r="Q12">
+        <v>1.221465724878357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.031869004981502</v>
+        <v>2.723265041211334</v>
       </c>
       <c r="C13">
-        <v>0.8427806967272033</v>
+        <v>0.6889990621251627</v>
       </c>
       <c r="D13">
-        <v>0.05280866565335884</v>
+        <v>0.1713433656796326</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.555164509044175</v>
+        <v>0.5570274195359062</v>
       </c>
       <c r="G13">
-        <v>1.344333737729301</v>
+        <v>0.312462686132335</v>
       </c>
       <c r="H13">
-        <v>0.7589754500147592</v>
+        <v>0.11424901993378</v>
       </c>
       <c r="I13">
-        <v>0.6275179163732858</v>
+        <v>0.009355949859529034</v>
       </c>
       <c r="J13">
-        <v>0.04765889477931395</v>
+        <v>0.2416438263794589</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1549576521889691</v>
       </c>
       <c r="L13">
-        <v>0.5521936008108526</v>
+        <v>0.1102020331307781</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.567564711153846</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.642721517480787</v>
+      </c>
+      <c r="P13">
+        <v>1.002042557565204</v>
+      </c>
+      <c r="Q13">
+        <v>1.118835409063081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.941349509808276</v>
+        <v>2.668418962430792</v>
       </c>
       <c r="C14">
-        <v>0.8278191765067788</v>
+        <v>0.6691500016563339</v>
       </c>
       <c r="D14">
-        <v>0.05230896281070585</v>
+        <v>0.1418342097464134</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.5352906475526</v>
+        <v>0.5048822685060586</v>
       </c>
       <c r="G14">
-        <v>1.324581425538781</v>
+        <v>0.287670498497107</v>
       </c>
       <c r="H14">
-        <v>0.7512442321118158</v>
+        <v>0.1633114051053326</v>
       </c>
       <c r="I14">
-        <v>0.6222548555242966</v>
+        <v>0.008870958934020123</v>
       </c>
       <c r="J14">
-        <v>0.04788219014834993</v>
+        <v>0.2298653724034949</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1479361218361586</v>
       </c>
       <c r="L14">
-        <v>0.5433401296136537</v>
+        <v>0.1105024805211503</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5745829901670909</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5591327077118891</v>
+      </c>
+      <c r="P14">
+        <v>1.031843030857686</v>
+      </c>
+      <c r="Q14">
+        <v>1.04155965314196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.885993716414305</v>
+        <v>2.636735085457417</v>
       </c>
       <c r="C15">
-        <v>0.8186690533639194</v>
+        <v>0.6612506002056193</v>
       </c>
       <c r="D15">
-        <v>0.05200360362709944</v>
+        <v>0.134826717647293</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.523201531274339</v>
+        <v>0.4908251458373414</v>
       </c>
       <c r="G15">
-        <v>1.312564044417712</v>
+        <v>0.2803064004900762</v>
       </c>
       <c r="H15">
-        <v>0.7465507592519316</v>
+        <v>0.175707726563175</v>
       </c>
       <c r="I15">
-        <v>0.619074584938204</v>
+        <v>0.008722639502575902</v>
       </c>
       <c r="J15">
-        <v>0.04802054334109584</v>
+        <v>0.2266385675763303</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1463686062954537</v>
       </c>
       <c r="L15">
-        <v>0.5379310488278719</v>
+        <v>0.1125508212386048</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5789141922062093</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5359979593235948</v>
+      </c>
+      <c r="P15">
+        <v>1.038255278150672</v>
+      </c>
+      <c r="Q15">
+        <v>1.019160357906344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.570078555753923</v>
+        <v>2.472686623236029</v>
       </c>
       <c r="C16">
-        <v>0.7664376846803123</v>
+        <v>0.62501710099707</v>
       </c>
       <c r="D16">
-        <v>0.05026439307299313</v>
+        <v>0.1322198560103374</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.455166060891102</v>
+        <v>0.4799587524940421</v>
       </c>
       <c r="G16">
-        <v>1.244896669922724</v>
+        <v>0.2706049063352083</v>
       </c>
       <c r="H16">
-        <v>0.7202771274997986</v>
+        <v>0.1624537999807387</v>
       </c>
       <c r="I16">
-        <v>0.6014936176399033</v>
+        <v>0.007650764591790704</v>
       </c>
       <c r="J16">
-        <v>0.04883719081865578</v>
+        <v>0.2248686054401716</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1493048459249131</v>
       </c>
       <c r="L16">
-        <v>0.507138208699061</v>
+        <v>0.1109537641418399</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6042183849326186</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.506221252907288</v>
+      </c>
+      <c r="P16">
+        <v>1.021263872595014</v>
+      </c>
+      <c r="Q16">
+        <v>0.9947150104554936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.377363805897062</v>
+        <v>2.376071316357979</v>
       </c>
       <c r="C17">
-        <v>0.7345630614452716</v>
+        <v>0.6078864151479593</v>
       </c>
       <c r="D17">
-        <v>0.04920654934651481</v>
+        <v>0.1452019698046314</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.414486429698314</v>
+        <v>0.4989054386364344</v>
       </c>
       <c r="G17">
-        <v>1.204403099741825</v>
+        <v>0.2762397121049958</v>
       </c>
       <c r="H17">
-        <v>0.7046907883002689</v>
+        <v>0.1244261267579247</v>
       </c>
       <c r="I17">
-        <v>0.5912586545061203</v>
+        <v>0.007119322960610575</v>
       </c>
       <c r="J17">
-        <v>0.04935900364107049</v>
+        <v>0.229759394173513</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1552631019506734</v>
       </c>
       <c r="L17">
-        <v>0.4884206986387056</v>
+        <v>0.10700992951889</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6201615089556576</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5267341556731893</v>
+      </c>
+      <c r="P17">
+        <v>0.9927538351745255</v>
+      </c>
+      <c r="Q17">
+        <v>1.01679773119109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.266890144248691</v>
+        <v>2.328817125748287</v>
       </c>
       <c r="C18">
-        <v>0.7162856223913252</v>
+        <v>0.6033020733120509</v>
       </c>
       <c r="D18">
-        <v>0.04860129068150343</v>
+        <v>0.1760269252224731</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.391457950217372</v>
+        <v>0.5479128738683414</v>
       </c>
       <c r="G18">
-        <v>1.181466500632581</v>
+        <v>0.2967051819521132</v>
       </c>
       <c r="H18">
-        <v>0.6959121279155625</v>
+        <v>0.07158676208267423</v>
       </c>
       <c r="I18">
-        <v>0.5855647823924102</v>
+        <v>0.006719876415705706</v>
       </c>
       <c r="J18">
-        <v>0.04966663141035355</v>
+        <v>0.2413685879985934</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1651668800128139</v>
       </c>
       <c r="L18">
-        <v>0.4777147798138515</v>
+        <v>0.1145394263966679</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6294812863577839</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5958233834824682</v>
+      </c>
+      <c r="P18">
+        <v>0.9513228074310547</v>
+      </c>
+      <c r="Q18">
+        <v>1.084440244428805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.229546641774732</v>
+        <v>2.318948017882235</v>
       </c>
       <c r="C19">
-        <v>0.7101063011338624</v>
+        <v>0.6131953795766378</v>
       </c>
       <c r="D19">
-        <v>0.04839689285125104</v>
+        <v>0.224161463356225</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.383722560101788</v>
+        <v>0.618402302323048</v>
       </c>
       <c r="G19">
-        <v>1.173759571994566</v>
+        <v>0.326649887931282</v>
       </c>
       <c r="H19">
-        <v>0.6929709583766908</v>
+        <v>0.02660205543054417</v>
       </c>
       <c r="I19">
-        <v>0.583669234437707</v>
+        <v>0.006941068296252517</v>
       </c>
       <c r="J19">
-        <v>0.04977206150902269</v>
+        <v>0.2569212143229294</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1769255366829761</v>
       </c>
       <c r="L19">
-        <v>0.4740998928875086</v>
+        <v>0.1514666500882136</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6326620965188638</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7045677258010059</v>
+      </c>
+      <c r="P19">
+        <v>0.9076371980150242</v>
+      </c>
+      <c r="Q19">
+        <v>1.180483704302191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.397839600106749</v>
+        <v>2.42450610637394</v>
       </c>
       <c r="C20">
-        <v>0.7379502505745847</v>
+        <v>0.6562353700905419</v>
       </c>
       <c r="D20">
-        <v>0.04931882544704536</v>
+        <v>0.3183033914780964</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.418778190391279</v>
+        <v>0.7502848306391456</v>
       </c>
       <c r="G20">
-        <v>1.208676609037809</v>
+        <v>0.3853271779819636</v>
       </c>
       <c r="H20">
-        <v>0.706330508356956</v>
+        <v>0.001643532405485093</v>
       </c>
       <c r="I20">
-        <v>0.5923280044290919</v>
+        <v>0.008058522909980326</v>
       </c>
       <c r="J20">
-        <v>0.04930267658618703</v>
+        <v>0.284588120906875</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1952464096290747</v>
       </c>
       <c r="L20">
-        <v>0.4904069301818339</v>
+        <v>0.2659436413749532</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6184487407045722</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9211340406296173</v>
+      </c>
+      <c r="P20">
+        <v>0.8518036166052667</v>
+      </c>
+      <c r="Q20">
+        <v>1.362937579567557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.967918342860685</v>
+        <v>2.726640284515383</v>
       </c>
       <c r="C21">
-        <v>0.832210735876231</v>
+        <v>0.7319701965753893</v>
       </c>
       <c r="D21">
-        <v>0.0524555859314404</v>
+        <v>0.3557050683046157</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.541110418078063</v>
+        <v>0.8164111616554095</v>
       </c>
       <c r="G21">
-        <v>1.330366057070819</v>
+        <v>0.4226836568631427</v>
       </c>
       <c r="H21">
-        <v>0.753506244367685</v>
+        <v>0.003107829884124391</v>
       </c>
       <c r="I21">
-        <v>0.6237916213794605</v>
+        <v>0.010446168685176</v>
       </c>
       <c r="J21">
-        <v>0.04781627301215785</v>
+        <v>0.2975926816020973</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1968168256613794</v>
       </c>
       <c r="L21">
-        <v>0.5459376844970336</v>
+        <v>0.2983682290667744</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5725147919086702</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.050281128963277</v>
+      </c>
+      <c r="P21">
+        <v>0.8543067825157777</v>
+      </c>
+      <c r="Q21">
+        <v>1.469675254488379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.344445782955745</v>
+        <v>2.926599096456187</v>
       </c>
       <c r="C22">
-        <v>0.8944373924392153</v>
+        <v>0.7779488399683032</v>
       </c>
       <c r="D22">
-        <v>0.05453756724271841</v>
+        <v>0.3753847435406072</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.624776904087398</v>
+        <v>0.8558983645361451</v>
       </c>
       <c r="G22">
-        <v>1.413489376412087</v>
+        <v>0.4463923619098438</v>
       </c>
       <c r="H22">
-        <v>0.7861983529336669</v>
+        <v>0.00431608742178069</v>
       </c>
       <c r="I22">
-        <v>0.6462767856849183</v>
+        <v>0.01188847402029403</v>
       </c>
       <c r="J22">
-        <v>0.0469150309707711</v>
+        <v>0.3058069994570758</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1980339291380595</v>
       </c>
       <c r="L22">
-        <v>0.5828435577011106</v>
+        <v>0.3127775581700547</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5439276189613906</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.125233057167023</v>
+      </c>
+      <c r="P22">
+        <v>0.857721748972665</v>
+      </c>
+      <c r="Q22">
+        <v>1.537333207092018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.143091658959747</v>
+        <v>2.823422775147037</v>
       </c>
       <c r="C23">
-        <v>0.8611626100644401</v>
+        <v>0.7508033284189821</v>
       </c>
       <c r="D23">
-        <v>0.05342326888149529</v>
+        <v>0.3645566909651308</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.579760786198747</v>
+        <v>0.8361623431121643</v>
       </c>
       <c r="G23">
-        <v>1.368773806678661</v>
+        <v>0.4348885093088342</v>
       </c>
       <c r="H23">
-        <v>0.7685694274973969</v>
+        <v>0.003652689185744573</v>
       </c>
       <c r="I23">
-        <v>0.6340897943227972</v>
+        <v>0.01084654358790349</v>
       </c>
       <c r="J23">
-        <v>0.0473894405820996</v>
+        <v>0.3020034201540227</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1981616454589243</v>
       </c>
       <c r="L23">
-        <v>0.5630859937478334</v>
+        <v>0.305156851162522</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5590488746366766</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.085014663517917</v>
+      </c>
+      <c r="P23">
+        <v>0.8543297435551409</v>
+      </c>
+      <c r="Q23">
+        <v>1.504876871567575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.388581501830856</v>
+        <v>2.426198076881178</v>
       </c>
       <c r="C24">
-        <v>0.736418755093581</v>
+        <v>0.6526276210337585</v>
       </c>
       <c r="D24">
-        <v>0.04926805639648535</v>
+        <v>0.3242612833439296</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.416836772429008</v>
+        <v>0.7604692556523958</v>
       </c>
       <c r="G24">
-        <v>1.20674348965386</v>
+        <v>0.3903851848554041</v>
       </c>
       <c r="H24">
-        <v>0.7055886257816155</v>
+        <v>0.001600997827125861</v>
       </c>
       <c r="I24">
-        <v>0.5918439606295394</v>
+        <v>0.007639775087189271</v>
       </c>
       <c r="J24">
-        <v>0.04932811831742434</v>
+        <v>0.287216478227208</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.197925249341818</v>
       </c>
       <c r="L24">
-        <v>0.4895087843621582</v>
+        <v>0.2761979318167747</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.619222605058745</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9332250689767818</v>
+      </c>
+      <c r="P24">
+        <v>0.8453700360552432</v>
+      </c>
+      <c r="Q24">
+        <v>1.379161586783852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.588586419509795</v>
+        <v>1.996169596366059</v>
       </c>
       <c r="C25">
-        <v>0.6039453004461279</v>
+        <v>0.54736052400321</v>
       </c>
       <c r="D25">
-        <v>0.04490613389570441</v>
+        <v>0.2811463358393382</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.255014728652981</v>
+        <v>0.6814162317467307</v>
       </c>
       <c r="G25">
-        <v>1.045301624005532</v>
+        <v>0.3443406636890103</v>
       </c>
       <c r="H25">
-        <v>0.6446757354670183</v>
+        <v>0.0002878018169110153</v>
       </c>
       <c r="I25">
-        <v>0.5535568656002212</v>
+        <v>0.004840939298426328</v>
       </c>
       <c r="J25">
-        <v>0.05170414121231026</v>
+        <v>0.27247755589039</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1988533093256848</v>
       </c>
       <c r="L25">
-        <v>0.4123954832933663</v>
+        <v>0.2449358378566941</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.689805620546533</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.7697626672217268</v>
+      </c>
+      <c r="P25">
+        <v>0.8384683516350151</v>
+      </c>
+      <c r="Q25">
+        <v>1.250219974500141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.686344803927938</v>
+        <v>1.650316787535814</v>
       </c>
       <c r="C2">
-        <v>0.4640981765573429</v>
+        <v>0.4844394313668943</v>
       </c>
       <c r="D2">
-        <v>0.2488800057163587</v>
+        <v>0.2517720805296193</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6285298729837479</v>
+        <v>0.6139811705156717</v>
       </c>
       <c r="G2">
-        <v>0.3147708130542455</v>
+        <v>0.2842827901109501</v>
       </c>
       <c r="H2">
-        <v>6.969260066824745E-07</v>
+        <v>2.211427593046267E-06</v>
       </c>
       <c r="I2">
-        <v>0.002674128852863333</v>
+        <v>0.002844915083328736</v>
       </c>
       <c r="J2">
-        <v>0.2640432272972504</v>
+        <v>0.2989686173187067</v>
       </c>
       <c r="K2">
-        <v>0.2024375483546628</v>
+        <v>0.1915117876674959</v>
       </c>
       <c r="L2">
-        <v>0.2220069170309387</v>
+        <v>0.1209312487484766</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03707303041503529</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2205691461079695</v>
       </c>
       <c r="O2">
-        <v>0.6489717589738433</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8322010624452716</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.169505134773459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6515033021143708</v>
+      </c>
+      <c r="R2">
+        <v>0.8447778610318721</v>
+      </c>
+      <c r="S2">
+        <v>1.130758934740086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.47046552036511</v>
+        <v>1.444321334625698</v>
       </c>
       <c r="C3">
-        <v>0.4113932235162849</v>
+        <v>0.4243911772057061</v>
       </c>
       <c r="D3">
-        <v>0.2275610085755915</v>
+        <v>0.2299671710168951</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5917726968435346</v>
+        <v>0.5801766701755895</v>
       </c>
       <c r="G3">
-        <v>0.2938260412202283</v>
+        <v>0.2659230470610296</v>
       </c>
       <c r="H3">
-        <v>0.0001831807654508744</v>
+        <v>0.0001895641149842753</v>
       </c>
       <c r="I3">
-        <v>0.001767464370607819</v>
+        <v>0.002000649718837177</v>
       </c>
       <c r="J3">
-        <v>0.2579983018596153</v>
+        <v>0.2923859527500738</v>
       </c>
       <c r="K3">
-        <v>0.2042464583912338</v>
+        <v>0.1943637505949223</v>
       </c>
       <c r="L3">
-        <v>0.2062757337700418</v>
+        <v>0.1256380466203204</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0357444021887785</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2053522903472711</v>
       </c>
       <c r="O3">
-        <v>0.5673638951397777</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8312201974328701</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.112181042704563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5694378103221567</v>
+      </c>
+      <c r="R3">
+        <v>0.8381481564607611</v>
+      </c>
+      <c r="S3">
+        <v>1.080985441418932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.337228664431422</v>
+        <v>1.316945235853154</v>
       </c>
       <c r="C4">
-        <v>0.3791940352710412</v>
+        <v>0.3878325409256433</v>
       </c>
       <c r="D4">
-        <v>0.2145294193850305</v>
+        <v>0.2166605779391517</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5696150425197999</v>
+        <v>0.5597317527839536</v>
       </c>
       <c r="G4">
-        <v>0.2812583035233658</v>
+        <v>0.2549275607417414</v>
       </c>
       <c r="H4">
-        <v>0.000467900222475448</v>
+        <v>0.000466584316024754</v>
       </c>
       <c r="I4">
-        <v>0.001329906174884155</v>
+        <v>0.001584830873956111</v>
       </c>
       <c r="J4">
-        <v>0.2545044460888022</v>
+        <v>0.2884107469209383</v>
       </c>
       <c r="K4">
-        <v>0.2055632336987365</v>
+        <v>0.1962591141488055</v>
       </c>
       <c r="L4">
-        <v>0.1965590470187948</v>
+        <v>0.1286766499658576</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03539226383226346</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.195952644278492</v>
       </c>
       <c r="O4">
-        <v>0.5172259576702203</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8312702070133327</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.078052070876325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5190157751748643</v>
+      </c>
+      <c r="R4">
+        <v>0.8348057460506411</v>
+      </c>
+      <c r="S4">
+        <v>1.0511924790042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.28190620003798</v>
+        <v>1.263961813990392</v>
       </c>
       <c r="C5">
-        <v>0.3667349495784435</v>
+        <v>0.3736571078843554</v>
       </c>
       <c r="D5">
-        <v>0.2093094470445607</v>
+        <v>0.2113357551175881</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5603289684838799</v>
+        <v>0.5511204115061261</v>
       </c>
       <c r="G5">
-        <v>0.2759039762445639</v>
+        <v>0.2502163473019365</v>
       </c>
       <c r="H5">
-        <v>0.0006258207228266865</v>
+        <v>0.0006188212212818733</v>
       </c>
       <c r="I5">
-        <v>0.00123925290605964</v>
+        <v>0.001511843924002498</v>
       </c>
       <c r="J5">
-        <v>0.2529777415911312</v>
+        <v>0.2866457917644638</v>
       </c>
       <c r="K5">
-        <v>0.2059402443425089</v>
+        <v>0.1968644870924177</v>
       </c>
       <c r="L5">
-        <v>0.1925640061218701</v>
+        <v>0.1298381733669896</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03532447368864489</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1920874668319428</v>
       </c>
       <c r="O5">
-        <v>0.4968356262170275</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8317761600034643</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.06343292356857</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4985097629564166</v>
+      </c>
+      <c r="R5">
+        <v>0.8339642391941808</v>
+      </c>
+      <c r="S5">
+        <v>1.038275869269128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.271663608052961</v>
+        <v>1.254106763823529</v>
       </c>
       <c r="C6">
-        <v>0.3654357013362812</v>
+        <v>0.3721033831472198</v>
       </c>
       <c r="D6">
-        <v>0.2085381339225449</v>
+        <v>0.2105490246499926</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5583591696981003</v>
+        <v>0.5492628225355531</v>
       </c>
       <c r="G6">
-        <v>0.2746498611460169</v>
+        <v>0.2490769294072095</v>
       </c>
       <c r="H6">
-        <v>0.0006551195187884939</v>
+        <v>0.0006470060286298818</v>
       </c>
       <c r="I6">
-        <v>0.001305933378801249</v>
+        <v>0.001598264265372684</v>
       </c>
       <c r="J6">
-        <v>0.2525369523157011</v>
+        <v>0.2861568259811662</v>
       </c>
       <c r="K6">
-        <v>0.2057499119497948</v>
+        <v>0.1967208221529315</v>
       </c>
       <c r="L6">
-        <v>0.191875760022775</v>
+        <v>0.1298946395803853</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0352706855061502</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1914211035294997</v>
       </c>
       <c r="O6">
-        <v>0.4935124882379895</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8322705722062906</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.059839094050801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4951680044805187</v>
+      </c>
+      <c r="R6">
+        <v>0.8342554230165433</v>
+      </c>
+      <c r="S6">
+        <v>1.034971533713502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.333617062026462</v>
+        <v>1.312475289469575</v>
       </c>
       <c r="C7">
-        <v>0.3811270963649065</v>
+        <v>0.389221836163415</v>
       </c>
       <c r="D7">
-        <v>0.2147180890987812</v>
+        <v>0.2170733972299388</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5683048884450699</v>
+        <v>0.5576662623089703</v>
       </c>
       <c r="G7">
-        <v>0.2801769720873821</v>
+        <v>0.2565612495366949</v>
       </c>
       <c r="H7">
-        <v>0.0004712754200533187</v>
+        <v>0.0004710335932633924</v>
       </c>
       <c r="I7">
-        <v>0.001532817201353787</v>
+        <v>0.001829605151326241</v>
       </c>
       <c r="J7">
-        <v>0.2539638320975115</v>
+        <v>0.2839433553510204</v>
       </c>
       <c r="K7">
-        <v>0.204869745707601</v>
+        <v>0.195373498839837</v>
       </c>
       <c r="L7">
-        <v>0.1964404450227804</v>
+        <v>0.128203242589775</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03519618505273137</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1958480672514114</v>
       </c>
       <c r="O7">
-        <v>0.5171242037247339</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8323840349508203</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.07462621770344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5187045131810777</v>
+      </c>
+      <c r="R7">
+        <v>0.8363944636832059</v>
+      </c>
+      <c r="S7">
+        <v>1.045679836054944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.608220612696272</v>
+        <v>1.572655845203059</v>
       </c>
       <c r="C8">
-        <v>0.4486963205844745</v>
+        <v>0.464571919620596</v>
       </c>
       <c r="D8">
-        <v>0.2418613720607112</v>
+        <v>0.2453314504288926</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6141991133213764</v>
+        <v>0.5981435699058792</v>
       </c>
       <c r="G8">
-        <v>0.3061481904307044</v>
+        <v>0.2855904172069899</v>
       </c>
       <c r="H8">
-        <v>2.696269351765146E-05</v>
+        <v>3.346735056686256E-05</v>
       </c>
       <c r="I8">
-        <v>0.002580494073818329</v>
+        <v>0.002821549797046075</v>
       </c>
       <c r="J8">
-        <v>0.2612261282322166</v>
+        <v>0.2832264485402263</v>
       </c>
       <c r="K8">
-        <v>0.2020978971779428</v>
+        <v>0.1908628498890277</v>
       </c>
       <c r="L8">
-        <v>0.2165099741638272</v>
+        <v>0.1217386896740891</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03607690261133456</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2152943203051976</v>
       </c>
       <c r="O8">
-        <v>0.6210674524617659</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8332465560854772</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.145236665391792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6227400745552814</v>
+      </c>
+      <c r="R8">
+        <v>0.8454695999438755</v>
+      </c>
+      <c r="S8">
+        <v>1.102110034367627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.146522326277761</v>
+        <v>2.084186760303112</v>
       </c>
       <c r="C9">
-        <v>0.5788820535728121</v>
+        <v>0.6132244544523076</v>
       </c>
       <c r="D9">
-        <v>0.295155898912796</v>
+        <v>0.300182388630347</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.709854447571864</v>
+        <v>0.6851230809592437</v>
       </c>
       <c r="G9">
-        <v>0.3614286631111554</v>
+        <v>0.3368678906860936</v>
       </c>
       <c r="H9">
-        <v>0.0006208836317838085</v>
+        <v>0.0005430784035223013</v>
       </c>
       <c r="I9">
-        <v>0.005355754183840489</v>
+        <v>0.005277268165635896</v>
       </c>
       <c r="J9">
-        <v>0.2782181054216295</v>
+        <v>0.2971449913580599</v>
       </c>
       <c r="K9">
-        <v>0.1996257991492207</v>
+        <v>0.1852143376418596</v>
       </c>
       <c r="L9">
-        <v>0.2555867270567234</v>
+        <v>0.1112538453213183</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04202681062420943</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2531088082000963</v>
       </c>
       <c r="O9">
-        <v>0.8244930860217679</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8382609295138153</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.298627388343846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8270613750077374</v>
+      </c>
+      <c r="R9">
+        <v>0.865464841845764</v>
+      </c>
+      <c r="S9">
+        <v>1.232887000349734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.535769675818926</v>
+        <v>2.447972248057567</v>
       </c>
       <c r="C10">
-        <v>0.6748280838532708</v>
+        <v>0.7192320040769857</v>
       </c>
       <c r="D10">
-        <v>0.3259784917019175</v>
+        <v>0.3334108976256971</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7705597816597987</v>
+        <v>0.7350144227115223</v>
       </c>
       <c r="G10">
-        <v>0.3985595485664248</v>
+        <v>0.3876605673635396</v>
       </c>
       <c r="H10">
-        <v>0.002140184757781327</v>
+        <v>0.001930158620210953</v>
       </c>
       <c r="I10">
-        <v>0.008196693371776753</v>
+        <v>0.007776120290562183</v>
       </c>
       <c r="J10">
-        <v>0.2892873377100216</v>
+        <v>0.284249126008568</v>
       </c>
       <c r="K10">
-        <v>0.1967826973928553</v>
+        <v>0.1788351202510832</v>
       </c>
       <c r="L10">
-        <v>0.2706621138015279</v>
+        <v>0.1032053042548355</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04743019282956595</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2674079126247406</v>
       </c>
       <c r="O10">
-        <v>0.9558398099334582</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8514218660554036</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.400936504813274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9576887241180287</v>
+      </c>
+      <c r="R10">
+        <v>0.8930565143929243</v>
+      </c>
+      <c r="S10">
+        <v>1.30587860095298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.693107375465843</v>
+        <v>2.590600320332555</v>
       </c>
       <c r="C11">
-        <v>0.7049261435911092</v>
+        <v>0.7423200170782991</v>
       </c>
       <c r="D11">
-        <v>0.2677326047689945</v>
+        <v>0.2764611944573687</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6989046141459028</v>
+        <v>0.6567525459390211</v>
       </c>
       <c r="G11">
-        <v>0.3726581503246962</v>
+        <v>0.3981868981360748</v>
       </c>
       <c r="H11">
-        <v>0.02050095441163791</v>
+        <v>0.02026721919632379</v>
       </c>
       <c r="I11">
-        <v>0.009574856350208272</v>
+        <v>0.009070829068914321</v>
       </c>
       <c r="J11">
-        <v>0.273042720888526</v>
+        <v>0.2307580767261967</v>
       </c>
       <c r="K11">
-        <v>0.1790201190142184</v>
+        <v>0.1605615689322697</v>
       </c>
       <c r="L11">
-        <v>0.1818466215510597</v>
+        <v>0.09459786640467627</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04350953490723697</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1787536969742476</v>
       </c>
       <c r="O11">
-        <v>0.8604647763031323</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9094417106197454</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.312168429847588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8595729858761416</v>
+      </c>
+      <c r="R11">
+        <v>0.9642710377520274</v>
+      </c>
+      <c r="S11">
+        <v>1.19593960067445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.748370132283469</v>
+        <v>2.642266568214097</v>
       </c>
       <c r="C12">
-        <v>0.706303067594007</v>
+        <v>0.7376556374794916</v>
       </c>
       <c r="D12">
-        <v>0.217585991348912</v>
+        <v>0.2257725684781633</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.629829628277939</v>
+        <v>0.5876408828732096</v>
       </c>
       <c r="G12">
-        <v>0.3448863251156524</v>
+        <v>0.3869904985486556</v>
       </c>
       <c r="H12">
-        <v>0.05888354812175578</v>
+        <v>0.05866048474773322</v>
       </c>
       <c r="I12">
-        <v>0.009771893254285402</v>
+        <v>0.009211677319613365</v>
       </c>
       <c r="J12">
-        <v>0.2578179310238227</v>
+        <v>0.2045717713598521</v>
       </c>
       <c r="K12">
-        <v>0.1660861768653419</v>
+        <v>0.1487390746772093</v>
       </c>
       <c r="L12">
-        <v>0.1325051724337776</v>
+        <v>0.0899710793104429</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03969178701780507</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1294933505203915</v>
       </c>
       <c r="O12">
-        <v>0.7571452391572251</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9576887061622585</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.221465724878357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7550609106716024</v>
+      </c>
+      <c r="R12">
+        <v>1.018753121888423</v>
+      </c>
+      <c r="S12">
+        <v>1.1021489944807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.723265041211334</v>
+        <v>2.624662308754296</v>
       </c>
       <c r="C13">
-        <v>0.6889990621251627</v>
+        <v>0.7165193937444769</v>
       </c>
       <c r="D13">
-        <v>0.1713433656796326</v>
+        <v>0.1775054734235653</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5570274195359062</v>
+        <v>0.5208429154386849</v>
       </c>
       <c r="G13">
-        <v>0.312462686132335</v>
+        <v>0.3500639238432655</v>
       </c>
       <c r="H13">
-        <v>0.11424901993378</v>
+        <v>0.1140643931952781</v>
       </c>
       <c r="I13">
-        <v>0.009355949859529034</v>
+        <v>0.008851676399252106</v>
       </c>
       <c r="J13">
-        <v>0.2416438263794589</v>
+        <v>0.1978083067821856</v>
       </c>
       <c r="K13">
-        <v>0.1549576521889691</v>
+        <v>0.1403102254559112</v>
       </c>
       <c r="L13">
-        <v>0.1102020331307781</v>
+        <v>0.08742382260442039</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03561867701054666</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.107335289272729</v>
       </c>
       <c r="O13">
-        <v>0.642721517480787</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.002042557565204</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.118835409063081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6408599108561361</v>
+      </c>
+      <c r="R13">
+        <v>1.062023539758826</v>
+      </c>
+      <c r="S13">
+        <v>1.013861727839512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.668418962430792</v>
+        <v>2.57997249733404</v>
       </c>
       <c r="C14">
-        <v>0.6691500016563339</v>
+        <v>0.6949222264785249</v>
       </c>
       <c r="D14">
-        <v>0.1418342097464134</v>
+        <v>0.1461969870112299</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5048822685060586</v>
+        <v>0.4750580333111074</v>
       </c>
       <c r="G14">
-        <v>0.287670498497107</v>
+        <v>0.3139441470481756</v>
       </c>
       <c r="H14">
-        <v>0.1633114051053326</v>
+        <v>0.1631614332872573</v>
       </c>
       <c r="I14">
-        <v>0.008870958934020123</v>
+        <v>0.008468291353326052</v>
       </c>
       <c r="J14">
-        <v>0.2298653724034949</v>
+        <v>0.2002202634979682</v>
       </c>
       <c r="K14">
-        <v>0.1479361218361586</v>
+        <v>0.1357238845310142</v>
       </c>
       <c r="L14">
-        <v>0.1105024805211503</v>
+        <v>0.08639424709444565</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03267928880421955</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.107834255704315</v>
       </c>
       <c r="O14">
-        <v>0.5591327077118891</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.031843030857686</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.04155965314196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5579212619381622</v>
+      </c>
+      <c r="R14">
+        <v>1.087483382666349</v>
+      </c>
+      <c r="S14">
+        <v>0.9533359798771812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.636735085457417</v>
+        <v>2.55290471524188</v>
       </c>
       <c r="C15">
-        <v>0.6612506002056193</v>
+        <v>0.6869684390420332</v>
       </c>
       <c r="D15">
-        <v>0.134826717647293</v>
+        <v>0.1385950841050985</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4908251458373414</v>
+        <v>0.4634874083333926</v>
       </c>
       <c r="G15">
-        <v>0.2803064004900762</v>
+        <v>0.3005059362028533</v>
       </c>
       <c r="H15">
-        <v>0.175707726563175</v>
+        <v>0.175572147603603</v>
       </c>
       <c r="I15">
-        <v>0.008722639502575902</v>
+        <v>0.008389681348522693</v>
       </c>
       <c r="J15">
-        <v>0.2266385675763303</v>
+        <v>0.2038591717350755</v>
       </c>
       <c r="K15">
-        <v>0.1463686062954537</v>
+        <v>0.1350079878899404</v>
       </c>
       <c r="L15">
-        <v>0.1125508212386048</v>
+        <v>0.08641899557994837</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03183938364178651</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1099893641940017</v>
       </c>
       <c r="O15">
-        <v>0.5359979593235948</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.038255278150672</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.019160357906344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5351427594333558</v>
+      </c>
+      <c r="R15">
+        <v>1.091338255976794</v>
+      </c>
+      <c r="S15">
+        <v>0.9379346349549564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.472686623236029</v>
+        <v>2.407080462726981</v>
       </c>
       <c r="C16">
-        <v>0.62501710099707</v>
+        <v>0.6529856315005134</v>
       </c>
       <c r="D16">
-        <v>0.1322198560103374</v>
+        <v>0.1344688643502749</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4799587524940421</v>
+        <v>0.4608163151407183</v>
       </c>
       <c r="G16">
-        <v>0.2706049063352083</v>
+        <v>0.2638342904965185</v>
       </c>
       <c r="H16">
-        <v>0.1624537999807387</v>
+        <v>0.1623768569636894</v>
       </c>
       <c r="I16">
-        <v>0.007650764591790704</v>
+        <v>0.007541529792557178</v>
       </c>
       <c r="J16">
-        <v>0.2248686054401716</v>
+        <v>0.2327366545959464</v>
       </c>
       <c r="K16">
-        <v>0.1493048459249131</v>
+        <v>0.1400811391907109</v>
       </c>
       <c r="L16">
-        <v>0.1109537641418399</v>
+        <v>0.089610640848381</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03115132128189479</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1088725738171412</v>
       </c>
       <c r="O16">
-        <v>0.506221252907288</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.021263872595014</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9947150104554936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5070460135039809</v>
+      </c>
+      <c r="R16">
+        <v>1.061647416723432</v>
+      </c>
+      <c r="S16">
+        <v>0.9383411258422285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.376071316357979</v>
+        <v>2.317406752107274</v>
       </c>
       <c r="C17">
-        <v>0.6078864151479593</v>
+        <v>0.6375384098537324</v>
       </c>
       <c r="D17">
-        <v>0.1452019698046314</v>
+        <v>0.1471746021741964</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4989054386364344</v>
+        <v>0.4822357899702823</v>
       </c>
       <c r="G17">
-        <v>0.2762397121049958</v>
+        <v>0.2579551872589931</v>
       </c>
       <c r="H17">
-        <v>0.1244261267579247</v>
+        <v>0.1243724693949133</v>
       </c>
       <c r="I17">
-        <v>0.007119322960610575</v>
+        <v>0.007119863589138298</v>
       </c>
       <c r="J17">
-        <v>0.229759394173513</v>
+        <v>0.2515432799143937</v>
       </c>
       <c r="K17">
-        <v>0.1552631019506734</v>
+        <v>0.1463191333754477</v>
       </c>
       <c r="L17">
-        <v>0.10700992951889</v>
+        <v>0.09279754217195268</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03202229782315591</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1050849971799215</v>
       </c>
       <c r="O17">
-        <v>0.5267341556731893</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9927538351745255</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.01679773119109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.528363727263077</v>
+      </c>
+      <c r="R17">
+        <v>1.027299674469418</v>
+      </c>
+      <c r="S17">
+        <v>0.96869013064196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.328817125748287</v>
+        <v>2.270535909097873</v>
       </c>
       <c r="C18">
-        <v>0.6033020733120509</v>
+        <v>0.6356521971946165</v>
       </c>
       <c r="D18">
-        <v>0.1760269252224731</v>
+        <v>0.1784140849682387</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5479128738683414</v>
+        <v>0.5304905072413746</v>
       </c>
       <c r="G18">
-        <v>0.2967051819521132</v>
+        <v>0.272261273514701</v>
       </c>
       <c r="H18">
-        <v>0.07158676208267423</v>
+        <v>0.07153460540753542</v>
       </c>
       <c r="I18">
-        <v>0.006719876415705706</v>
+        <v>0.006709792489106192</v>
       </c>
       <c r="J18">
-        <v>0.2413685879985934</v>
+        <v>0.2687450050280233</v>
       </c>
       <c r="K18">
-        <v>0.1651668800128139</v>
+        <v>0.1552528202550132</v>
       </c>
       <c r="L18">
-        <v>0.1145394263966679</v>
+        <v>0.09671884427859112</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0345816713784064</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1125140098231165</v>
       </c>
       <c r="O18">
-        <v>0.5958233834824682</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9513228074310547</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.084440244428805</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5980198891428401</v>
+      </c>
+      <c r="R18">
+        <v>0.9834598446265801</v>
+      </c>
+      <c r="S18">
+        <v>1.03549848556915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.318948017882235</v>
+        <v>2.256782562347439</v>
       </c>
       <c r="C19">
-        <v>0.6131953795766378</v>
+        <v>0.6496364421967655</v>
       </c>
       <c r="D19">
-        <v>0.224161463356225</v>
+        <v>0.2274697979069629</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.618402302323048</v>
+        <v>0.5980795937653482</v>
       </c>
       <c r="G19">
-        <v>0.326649887931282</v>
+        <v>0.2985116641523575</v>
       </c>
       <c r="H19">
-        <v>0.02660205543054417</v>
+        <v>0.02653043313408432</v>
       </c>
       <c r="I19">
-        <v>0.006941068296252517</v>
+        <v>0.006941960922230983</v>
       </c>
       <c r="J19">
-        <v>0.2569212143229294</v>
+        <v>0.2850859164590531</v>
       </c>
       <c r="K19">
-        <v>0.1769255366829761</v>
+        <v>0.16524044267649</v>
       </c>
       <c r="L19">
-        <v>0.1514666500882136</v>
+        <v>0.1007269393771129</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03812704438635883</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1491367473846736</v>
       </c>
       <c r="O19">
-        <v>0.7045677258010059</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9076371980150242</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.180483704302191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7072572654098579</v>
+      </c>
+      <c r="R19">
+        <v>0.9394932338368704</v>
+      </c>
+      <c r="S19">
+        <v>1.124947251939346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.42450610637394</v>
+        <v>2.346951111858743</v>
       </c>
       <c r="C20">
-        <v>0.6562353700905419</v>
+        <v>0.7005641451169424</v>
       </c>
       <c r="D20">
-        <v>0.3183033914780964</v>
+        <v>0.3242891949630859</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7502848306391456</v>
+        <v>0.7204723568753622</v>
       </c>
       <c r="G20">
-        <v>0.3853271779819636</v>
+        <v>0.3608543786300089</v>
       </c>
       <c r="H20">
-        <v>0.001643532405485093</v>
+        <v>0.001480433213952193</v>
       </c>
       <c r="I20">
-        <v>0.008058522909980326</v>
+        <v>0.007916659765514034</v>
       </c>
       <c r="J20">
-        <v>0.284588120906875</v>
+        <v>0.298925887323847</v>
       </c>
       <c r="K20">
-        <v>0.1952464096290747</v>
+        <v>0.1792036366668945</v>
       </c>
       <c r="L20">
-        <v>0.2659436413749532</v>
+        <v>0.1047845528826592</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04538922719022409</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2628426427947232</v>
       </c>
       <c r="O20">
-        <v>0.9211340406296173</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8518036166052667</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.362937579567557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9239596739458236</v>
+      </c>
+      <c r="R20">
+        <v>0.8880979498667045</v>
+      </c>
+      <c r="S20">
+        <v>1.283735479627097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.726640284515383</v>
+        <v>2.610275912548389</v>
       </c>
       <c r="C21">
-        <v>0.7319701965753893</v>
+        <v>0.7730233376784668</v>
       </c>
       <c r="D21">
-        <v>0.3557050683046157</v>
+        <v>0.3683833328037878</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8164111616554095</v>
+        <v>0.7624279248079944</v>
       </c>
       <c r="G21">
-        <v>0.4226836568631427</v>
+        <v>0.4640684181063648</v>
       </c>
       <c r="H21">
-        <v>0.003107829884124391</v>
+        <v>0.002763883117823496</v>
       </c>
       <c r="I21">
-        <v>0.010446168685176</v>
+        <v>0.009863073053036686</v>
       </c>
       <c r="J21">
-        <v>0.2975926816020973</v>
+        <v>0.232133221396424</v>
       </c>
       <c r="K21">
-        <v>0.1968168256613794</v>
+        <v>0.1734629727129189</v>
       </c>
       <c r="L21">
-        <v>0.2983682290667744</v>
+        <v>0.09865381827643205</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04960479954194241</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2949371879019935</v>
       </c>
       <c r="O21">
-        <v>1.050281128963277</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8543067825157777</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.469675254488379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.048405424285036</v>
+      </c>
+      <c r="R21">
+        <v>0.9116124946888959</v>
+      </c>
+      <c r="S21">
+        <v>1.324674825675288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.926599096456187</v>
+        <v>2.783159010436577</v>
       </c>
       <c r="C22">
-        <v>0.7779488399683032</v>
+        <v>0.8154066461647176</v>
       </c>
       <c r="D22">
-        <v>0.3753847435406072</v>
+        <v>0.3928848446616939</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8558983645361451</v>
+        <v>0.7848420271275103</v>
       </c>
       <c r="G22">
-        <v>0.4463923619098438</v>
+        <v>0.5399902754418804</v>
       </c>
       <c r="H22">
-        <v>0.00431608742178069</v>
+        <v>0.003827674365705191</v>
       </c>
       <c r="I22">
-        <v>0.01188847402029403</v>
+        <v>0.01091025772563992</v>
       </c>
       <c r="J22">
-        <v>0.3058069994570758</v>
+        <v>0.1934695763464944</v>
       </c>
       <c r="K22">
-        <v>0.1980339291380595</v>
+        <v>0.1695715214614175</v>
       </c>
       <c r="L22">
-        <v>0.3127775581700547</v>
+        <v>0.09480343694719195</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05252852195535951</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3092422661429097</v>
       </c>
       <c r="O22">
-        <v>1.125233057167023</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.857721748972665</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.537333207092018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.119797785347771</v>
+      </c>
+      <c r="R22">
+        <v>0.929931205968245</v>
+      </c>
+      <c r="S22">
+        <v>1.345777250290297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.823422775147037</v>
+        <v>2.69691424755797</v>
       </c>
       <c r="C23">
-        <v>0.7508033284189821</v>
+        <v>0.7917566230743205</v>
       </c>
       <c r="D23">
-        <v>0.3645566909651308</v>
+        <v>0.3788103655571859</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8361623431121643</v>
+        <v>0.776265418719845</v>
       </c>
       <c r="G23">
-        <v>0.4348885093088342</v>
+        <v>0.4919517294632101</v>
       </c>
       <c r="H23">
-        <v>0.003652689185744573</v>
+        <v>0.00324910505700482</v>
       </c>
       <c r="I23">
-        <v>0.01084654358790349</v>
+        <v>0.01003044657342844</v>
       </c>
       <c r="J23">
-        <v>0.3020034201540227</v>
+        <v>0.2204355675684937</v>
       </c>
       <c r="K23">
-        <v>0.1981616454589243</v>
+        <v>0.1728831459454412</v>
       </c>
       <c r="L23">
-        <v>0.305156851162522</v>
+        <v>0.09723678105872047</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05149408775602282</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3016145194001183</v>
       </c>
       <c r="O23">
-        <v>1.085014663517917</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8543297435551409</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.504876871567575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.082079846435725</v>
+      </c>
+      <c r="R23">
+        <v>0.9169585206009856</v>
+      </c>
+      <c r="S23">
+        <v>1.343675370218079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.426198076881178</v>
+        <v>2.348443796838183</v>
       </c>
       <c r="C24">
-        <v>0.6526276210337585</v>
+        <v>0.6971738335314228</v>
       </c>
       <c r="D24">
-        <v>0.3242612833439296</v>
+        <v>0.3303197056671081</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7604692556523958</v>
+        <v>0.7303977693752159</v>
       </c>
       <c r="G24">
-        <v>0.3903851848554041</v>
+        <v>0.3651102526157359</v>
       </c>
       <c r="H24">
-        <v>0.001600997827125861</v>
+        <v>0.001433789311952038</v>
       </c>
       <c r="I24">
-        <v>0.007639775087189271</v>
+        <v>0.007396578878466897</v>
       </c>
       <c r="J24">
-        <v>0.287216478227208</v>
+        <v>0.3020875146073507</v>
       </c>
       <c r="K24">
-        <v>0.197925249341818</v>
+        <v>0.1815979147614932</v>
       </c>
       <c r="L24">
-        <v>0.2761979318167747</v>
+        <v>0.1057340717667241</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0462443607573757</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2730551183366998</v>
       </c>
       <c r="O24">
-        <v>0.9332250689767818</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8453700360552432</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.379161586783852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9361279583661144</v>
+      </c>
+      <c r="R24">
+        <v>0.881214404254905</v>
+      </c>
+      <c r="S24">
+        <v>1.299373614051888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.996169596366059</v>
+        <v>1.942622721396418</v>
       </c>
       <c r="C25">
-        <v>0.54736052400321</v>
+        <v>0.5776592508124168</v>
       </c>
       <c r="D25">
-        <v>0.2811463358393382</v>
+        <v>0.2854185401382665</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6814162317467307</v>
+        <v>0.6602577711679842</v>
       </c>
       <c r="G25">
-        <v>0.3443406636890103</v>
+        <v>0.3170021675068853</v>
       </c>
       <c r="H25">
-        <v>0.0002878018169110153</v>
+        <v>0.0002451512132726208</v>
       </c>
       <c r="I25">
-        <v>0.004840939298426328</v>
+        <v>0.004957841420771381</v>
       </c>
       <c r="J25">
-        <v>0.27247755589039</v>
+        <v>0.2977876961411212</v>
       </c>
       <c r="K25">
-        <v>0.1988533093256848</v>
+        <v>0.1857578430711015</v>
       </c>
       <c r="L25">
-        <v>0.2449358378566941</v>
+        <v>0.1136090625133974</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0397242061530676</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2427805806556194</v>
       </c>
       <c r="O25">
-        <v>0.7697626672217268</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8384683516350151</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.250219974500141</v>
+        <v>0.7724056174263794</v>
+      </c>
+      <c r="R25">
+        <v>0.8610310764066753</v>
+      </c>
+      <c r="S25">
+        <v>1.194082513125807</v>
       </c>
     </row>
   </sheetData>
